--- a/resources/data clean/prediction.xlsx
+++ b/resources/data clean/prediction.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2012'!$A$1:$L$100</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1246,7 +1246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -6011,7 +6011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -9764,7 +9764,7 @@
   <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13438,7 +13438,7 @@
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19290,7 +19290,7 @@
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19431,11 +19431,11 @@
         <v>0</v>
       </c>
       <c r="R2" s="3">
-        <f>(B2-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" ref="R2:R49" si="0">(B2-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S2" s="3">
-        <f>(C2-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" ref="S2:S49" si="1">(C2-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -19471,7 +19471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I40" si="0">H3/G3</f>
+        <f t="shared" ref="I3:I40" si="2">H3/G3</f>
         <v>0</v>
       </c>
       <c r="J3">
@@ -19491,7 +19491,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N40" si="1">M3/L3</f>
+        <f t="shared" ref="N3:N40" si="3">M3/L3</f>
         <v>0</v>
       </c>
       <c r="O3" s="3">
@@ -19506,11 +19506,11 @@
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <f>(B3-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>0.47459669723190928</v>
       </c>
       <c r="S3" s="3">
-        <f>(C3-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
     </row>
@@ -19546,7 +19546,7 @@
         <v>22.86</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.6754190842613956E-6</v>
       </c>
       <c r="J4">
@@ -19566,7 +19566,7 @@
         <v>22.86</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.683958710990716E-6</v>
       </c>
       <c r="O4" s="3">
@@ -19581,11 +19581,11 @@
         <v>0</v>
       </c>
       <c r="R4" s="3">
-        <f>(B4-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S4" s="3">
-        <f>(C4-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -19621,7 +19621,7 @@
         <v>26.596</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1701734765899747E-6</v>
       </c>
       <c r="J5">
@@ -19641,7 +19641,7 @@
         <v>26.596</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.251623590535173E-6</v>
       </c>
       <c r="O5" s="3">
@@ -19656,11 +19656,11 @@
         <v>0</v>
       </c>
       <c r="R5" s="3">
-        <f>(B5-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>0.9923385487576285</v>
       </c>
       <c r="S5" s="3">
-        <f>(C5-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>0.36472550914314428</v>
       </c>
     </row>
@@ -19696,7 +19696,7 @@
         <v>43.564999999999998</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1678584235736426E-6</v>
       </c>
       <c r="J6">
@@ -19716,7 +19716,7 @@
         <v>43.564999999999998</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2352365488128572E-6</v>
       </c>
       <c r="O6" s="3">
@@ -19731,11 +19731,11 @@
         <v>0</v>
       </c>
       <c r="R6" s="3">
-        <f>(B6-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S6" s="3">
-        <f>(C6-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -19771,7 +19771,7 @@
         <v>49.302</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.3036946641617315E-6</v>
       </c>
       <c r="J7">
@@ -19791,7 +19791,7 @@
         <v>49.302</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.6258986238218045E-6</v>
       </c>
       <c r="O7" s="3">
@@ -19806,11 +19806,11 @@
         <v>0</v>
       </c>
       <c r="R7" s="3">
-        <f>(B7-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.41968468267615111</v>
       </c>
       <c r="S7" s="3">
-        <f>(C7-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
     </row>
@@ -19846,7 +19846,7 @@
         <v>40.716999999999999</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6588874832565708E-6</v>
       </c>
       <c r="J8">
@@ -19866,7 +19866,7 @@
         <v>40.716999999999999</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.8017836272789857E-6</v>
       </c>
       <c r="O8" s="3">
@@ -19881,11 +19881,11 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <f>(B8-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.41968468267615111</v>
       </c>
       <c r="S8" s="3">
-        <f>(C8-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -19921,7 +19921,7 @@
         <v>38.892000000000003</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1094674556213025E-6</v>
       </c>
       <c r="J9">
@@ -19941,7 +19941,7 @@
         <v>38.892000000000003</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.0818639798488665E-6</v>
       </c>
       <c r="O9" s="3">
@@ -19956,11 +19956,11 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <f>(B9-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-9.0212595341602558E-2</v>
       </c>
       <c r="S9" s="3">
-        <f>(C9-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
     </row>
@@ -19996,7 +19996,7 @@
         <v>25.837</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2765216303840783E-7</v>
       </c>
       <c r="J10">
@@ -20016,7 +20016,7 @@
         <v>25.837</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3265410651973294E-7</v>
       </c>
       <c r="O10" s="3">
@@ -20031,11 +20031,11 @@
         <v>1</v>
       </c>
       <c r="R10" s="3">
-        <f>(B10-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>0.19219205094515335</v>
       </c>
       <c r="S10" s="3">
-        <f>(C10-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.17896469082179126</v>
       </c>
     </row>
@@ -20071,7 +20071,7 @@
         <v>17.72</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.0990639937135333E-7</v>
       </c>
       <c r="J11">
@@ -20091,7 +20091,7 @@
         <v>17.72</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.3300008996632444E-7</v>
       </c>
       <c r="O11" s="3">
@@ -20106,11 +20106,11 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <f>(B11-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>5.0989727801775402E-2</v>
       </c>
       <c r="S11" s="3">
-        <f>(C11-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
     </row>
@@ -20146,7 +20146,7 @@
         <v>11.164</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.2653744923909543E-9</v>
       </c>
       <c r="J12">
@@ -20166,7 +20166,7 @@
         <v>11.164</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.4278547999290373E-9</v>
       </c>
       <c r="O12" s="3">
@@ -20181,11 +20181,11 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <f>(B12-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>3.0162385138127124</v>
       </c>
       <c r="S12" s="3">
-        <f>(C12-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>3.6268667089327575</v>
       </c>
     </row>
@@ -20221,7 +20221,7 @@
         <v>21.74</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.6372713152261325E-7</v>
       </c>
       <c r="J13">
@@ -20241,7 +20241,7 @@
         <v>21.74</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.8416918216386654E-7</v>
       </c>
       <c r="O13" s="3">
@@ -20256,11 +20256,11 @@
         <v>0</v>
       </c>
       <c r="R13" s="3">
-        <f>(B13-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S13" s="3">
-        <f>(C13-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
     </row>
@@ -20296,7 +20296,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14">
@@ -20316,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="3">
@@ -20331,11 +20331,11 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <f>(B14-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.37261724162835846</v>
       </c>
       <c r="S14" s="3">
-        <f>(C14-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>3.8511389164182966E-2</v>
       </c>
     </row>
@@ -20371,7 +20371,7 @@
         <v>28.873999999999999</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7470831151051038E-6</v>
       </c>
       <c r="J15">
@@ -20391,7 +20391,7 @@
         <v>28.873999999999999</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7804625752183301E-6</v>
       </c>
       <c r="O15" s="3">
@@ -20406,11 +20406,11 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <f>(B15-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.32554980058056582</v>
       </c>
       <c r="S15" s="3">
-        <f>(C15-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-7.0226650828804138E-2</v>
       </c>
     </row>
@@ -20446,7 +20446,7 @@
         <v>15.557</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5319492712778173E-6</v>
       </c>
       <c r="J16">
@@ -20466,7 +20466,7 @@
         <v>15.557</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6143843230902204E-6</v>
       </c>
       <c r="O16" s="3">
@@ -20481,11 +20481,11 @@
         <v>0</v>
       </c>
       <c r="R16" s="3">
-        <f>(B16-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.41968468267615111</v>
       </c>
       <c r="S16" s="3">
-        <f>(C16-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
     </row>
@@ -20521,7 +20521,7 @@
         <v>14.946</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1954295052995788E-7</v>
       </c>
       <c r="J17">
@@ -20541,7 +20541,7 @@
         <v>14.946</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2523753154941147E-7</v>
       </c>
       <c r="O17" s="3">
@@ -20556,11 +20556,11 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <f>(B17-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.1372800363893952</v>
       </c>
       <c r="S17" s="3">
-        <f>(C17-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.17896469082179126</v>
       </c>
     </row>
@@ -20596,7 +20596,7 @@
         <v>1.9770000000000001</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4946745132668429E-6</v>
       </c>
       <c r="J18">
@@ -20616,7 +20616,7 @@
         <v>1.9770000000000001</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4785840893283175E-6</v>
       </c>
       <c r="O18" s="3">
@@ -20631,11 +20631,11 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <f>(B18-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.41968468267615111</v>
       </c>
       <c r="S18" s="3">
-        <f>(C18-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -20671,7 +20671,7 @@
         <v>10.143000000000001</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1002133381239563E-7</v>
       </c>
       <c r="J19">
@@ -20691,7 +20691,7 @@
         <v>10.143000000000001</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2208772097239554E-7</v>
       </c>
       <c r="O19" s="3">
@@ -20706,11 +20706,11 @@
         <v>0</v>
       </c>
       <c r="R19" s="3">
-        <f>(B19-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.27848235953277317</v>
       </c>
       <c r="S19" s="3">
-        <f>(C19-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.17896469082179126</v>
       </c>
     </row>
@@ -20746,7 +20746,7 @@
         <v>38.94</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.192502508786988E-6</v>
       </c>
       <c r="J20">
@@ -20766,7 +20766,7 @@
         <v>38.94</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.3286421742466538E-6</v>
       </c>
       <c r="O20" s="3">
@@ -20781,11 +20781,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <f>(B20-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.41968468267615111</v>
       </c>
       <c r="S20" s="3">
-        <f>(C20-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -20821,7 +20821,7 @@
         <v>42.378</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4541784248776914E-7</v>
       </c>
       <c r="J21">
@@ -20841,7 +20841,7 @@
         <v>42.378</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5829913138627279E-7</v>
       </c>
       <c r="O21" s="3">
@@ -20856,11 +20856,11 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <f>(B21-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>0.70993390247087251</v>
       </c>
       <c r="S21" s="3">
-        <f>(C21-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>0.6909396291221056</v>
       </c>
     </row>
@@ -20896,7 +20896,7 @@
         <v>37.546999999999997</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.8943207488818732E-7</v>
       </c>
       <c r="J22">
@@ -20916,7 +20916,7 @@
         <v>37.546999999999997</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0748787414757819E-7</v>
       </c>
       <c r="O22" s="3">
@@ -20931,11 +20931,11 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <f>(B22-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>0.9923385487576285</v>
       </c>
       <c r="S22" s="3">
-        <f>(C22-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>2.6482243489958739</v>
       </c>
     </row>
@@ -20971,7 +20971,7 @@
         <v>25.690999999999999</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7166013071895422E-6</v>
       </c>
       <c r="J23">
@@ -20991,7 +20991,7 @@
         <v>25.690999999999999</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.3749379652605458E-6</v>
       </c>
       <c r="O23" s="3">
@@ -21006,11 +21006,11 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <f>(B23-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.32554980058056582</v>
       </c>
       <c r="S23" s="3">
-        <f>(C23-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
     </row>
@@ -21046,7 +21046,7 @@
         <v>40.981000000000002</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1309984454196329E-6</v>
       </c>
       <c r="J24">
@@ -21066,7 +21066,7 @@
         <v>40.981000000000002</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.0825097119121499E-6</v>
       </c>
       <c r="O24" s="3">
@@ -21081,11 +21081,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <f>(B24-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>0.28632693304073864</v>
       </c>
       <c r="S24" s="3">
-        <f>(C24-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>0.36472550914314428</v>
       </c>
     </row>
@@ -21121,7 +21121,7 @@
         <v>12.497</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.8900779290103056E-9</v>
       </c>
       <c r="J25">
@@ -21141,7 +21141,7 @@
         <v>12.497</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0439655878167116E-8</v>
       </c>
       <c r="O25" s="3">
@@ -21156,11 +21156,11 @@
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <f>(B25-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.41968468267615111</v>
       </c>
       <c r="S25" s="3">
-        <f>(C25-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -21196,7 +21196,7 @@
         <v>31.872</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9484882699567925E-6</v>
       </c>
       <c r="J26">
@@ -21216,7 +21216,7 @@
         <v>31.872</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.0991619638876464E-6</v>
       </c>
       <c r="O26" s="3">
@@ -21231,11 +21231,11 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <f>(B26-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S26" s="3">
-        <f>(C26-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
     </row>
@@ -21271,7 +21271,7 @@
         <v>34.064999999999998</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.306301750837494E-6</v>
       </c>
       <c r="J27">
@@ -21291,7 +21291,7 @@
         <v>34.064999999999998</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.6608198336252185E-6</v>
       </c>
       <c r="O27" s="3">
@@ -21306,11 +21306,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <f>(B27-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S27" s="3">
-        <f>(C27-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -21346,7 +21346,7 @@
         <v>36.590000000000003</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.1454776481386372E-7</v>
       </c>
       <c r="J28">
@@ -21366,7 +21366,7 @@
         <v>36.590000000000003</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.2199614661572819E-7</v>
       </c>
       <c r="O28" s="3">
@@ -21381,11 +21381,11 @@
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <f>(B28-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-9.0212595341602558E-2</v>
       </c>
       <c r="S28" s="3">
-        <f>(C28-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>0.36472550914314428</v>
       </c>
     </row>
@@ -21421,7 +21421,7 @@
         <v>31.702000000000002</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1707637736099904E-5</v>
       </c>
       <c r="J29">
@@ -21441,7 +21441,7 @@
         <v>31.702000000000002</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1864814026094956E-5</v>
       </c>
       <c r="O29" s="3">
@@ -21456,11 +21456,11 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <f>(B29-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-4.3145154293809905E-2</v>
       </c>
       <c r="S29" s="3">
-        <f>(C29-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-7.0226650828804138E-2</v>
       </c>
     </row>
@@ -21496,7 +21496,7 @@
         <v>12.930999999999999</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0137072012384553E-7</v>
       </c>
       <c r="J30">
@@ -21516,7 +21516,7 @@
         <v>12.930999999999999</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0097373948759594E-7</v>
       </c>
       <c r="O30" s="3">
@@ -21531,11 +21531,11 @@
         <v>0</v>
       </c>
       <c r="R30" s="3">
-        <f>(B30-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>0.61579902037528722</v>
       </c>
       <c r="S30" s="3">
-        <f>(C30-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>0.25598746915015719</v>
       </c>
     </row>
@@ -21571,7 +21571,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J31">
@@ -21591,7 +21591,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O31" s="3">
@@ -21606,11 +21606,11 @@
         <v>0</v>
       </c>
       <c r="R31" s="3">
-        <f>(B31-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.37261724162835846</v>
       </c>
       <c r="S31" s="3">
-        <f>(C31-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>0.25598746915015719</v>
       </c>
     </row>
@@ -21646,7 +21646,7 @@
         <v>16.472999999999999</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8720843660732916E-7</v>
       </c>
       <c r="J32">
@@ -21666,7 +21666,7 @@
         <v>16.472999999999999</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.3072925472412432E-7</v>
       </c>
       <c r="O32" s="3">
@@ -21681,11 +21681,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <f>(B32-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.18434747743718785</v>
       </c>
       <c r="S32" s="3">
-        <f>(C32-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
     </row>
@@ -21721,7 +21721,7 @@
         <v>9.17</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.069175603367458E-6</v>
       </c>
       <c r="J33">
@@ -21741,7 +21741,7 @@
         <v>9.17</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8672100295444576E-6</v>
       </c>
       <c r="O33" s="3">
@@ -21756,11 +21756,11 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <f>(B33-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S33" s="3">
-        <f>(C33-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
     </row>
@@ -21796,7 +21796,7 @@
         <v>34.942999999999998</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0593863302388205E-6</v>
       </c>
       <c r="J34">
@@ -21816,7 +21816,7 @@
         <v>34.942999999999998</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1145899095084282E-6</v>
       </c>
       <c r="O34" s="3">
@@ -21831,11 +21831,11 @@
         <v>0</v>
       </c>
       <c r="R34" s="3">
-        <f>(B34-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S34" s="3">
-        <f>(C34-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -21871,7 +21871,7 @@
         <v>34.360999999999997</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.653270568298693E-6</v>
       </c>
       <c r="J35">
@@ -21891,7 +21891,7 @@
         <v>34.360999999999997</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.6246388064450697E-6</v>
       </c>
       <c r="O35" s="3">
@@ -21906,11 +21906,11 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <f>(B35-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S35" s="3">
-        <f>(C35-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36">
@@ -21966,7 +21966,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O36" s="3">
@@ -21981,11 +21981,11 @@
         <v>0</v>
       </c>
       <c r="R36" s="3">
-        <f>(B36-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.37261724162835846</v>
       </c>
       <c r="S36" s="3">
-        <f>(C36-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
     </row>
@@ -22021,7 +22021,7 @@
         <v>51.701000000000001</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0301932441751868E-5</v>
       </c>
       <c r="J37">
@@ -22041,7 +22041,7 @@
         <v>51.701000000000001</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.084284843039697E-5</v>
       </c>
       <c r="O37" s="3">
@@ -22056,11 +22056,11 @@
         <v>0</v>
       </c>
       <c r="R37" s="3">
-        <f>(B37-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>0.28632693304073864</v>
       </c>
       <c r="S37" s="3">
-        <f>(C37-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
     </row>
@@ -22096,7 +22096,7 @@
         <v>36.268000000000001</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.2275810439872056E-6</v>
       </c>
       <c r="J38">
@@ -22116,7 +22116,7 @@
         <v>36.268000000000001</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.5140147424761727E-6</v>
       </c>
       <c r="O38" s="3">
@@ -22131,11 +22131,11 @@
         <v>0</v>
       </c>
       <c r="R38" s="3">
-        <f>(B38-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.27848235953277317</v>
       </c>
       <c r="S38" s="3">
-        <f>(C38-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>0.14724942915717007</v>
       </c>
     </row>
@@ -22171,7 +22171,7 @@
         <v>32.661999999999999</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.5809997298175205E-7</v>
       </c>
       <c r="J39">
@@ -22191,7 +22191,7 @@
         <v>32.661999999999999</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.5669114154553616E-7</v>
       </c>
       <c r="O39" s="3">
@@ -22206,11 +22206,11 @@
         <v>0</v>
       </c>
       <c r="R39" s="3">
-        <f>(B39-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.18434747743718785</v>
       </c>
       <c r="S39" s="3">
-        <f>(C39-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
     </row>
@@ -22246,7 +22246,7 @@
         <v>31.707999999999998</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5808128762363809E-6</v>
       </c>
       <c r="J40">
@@ -22266,7 +22266,7 @@
         <v>31.707999999999998</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5438792961784021E-6</v>
       </c>
       <c r="O40" s="3">
@@ -22281,11 +22281,11 @@
         <v>0</v>
       </c>
       <c r="R40" s="3">
-        <f>(B40-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.2314149184849805</v>
       </c>
       <c r="S40" s="3">
-        <f>(C40-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
     </row>
@@ -22321,7 +22321,7 @@
         <v>38.209000000000003</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41:I49" si="2">H41/G41</f>
+        <f t="shared" ref="I41:I49" si="4">H41/G41</f>
         <v>5.3074859457677707E-6</v>
       </c>
       <c r="J41">
@@ -22341,7 +22341,7 @@
         <v>38.209000000000003</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41:N49" si="3">M41/L41</f>
+        <f t="shared" ref="N41:N49" si="5">M41/L41</f>
         <v>5.198346390081824E-6</v>
       </c>
       <c r="O41" s="3">
@@ -22356,11 +22356,11 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <f>(B41-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S41" s="3">
-        <f>(C41-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
     </row>
@@ -22396,7 +22396,7 @@
         <v>33.383000000000003</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5068482444328801E-6</v>
       </c>
       <c r="J42">
@@ -22416,7 +22416,7 @@
         <v>33.383000000000003</v>
       </c>
       <c r="N42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6208583917132533E-6</v>
       </c>
       <c r="O42" s="3">
@@ -22431,11 +22431,11 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
-        <f>(B42-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S42" s="3">
-        <f>(C42-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
     </row>
@@ -22471,7 +22471,7 @@
         <v>18.818999999999999</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.8019420485309641E-7</v>
       </c>
       <c r="J43">
@@ -22491,7 +22491,7 @@
         <v>18.818999999999999</v>
       </c>
       <c r="N43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8319154569629431E-7</v>
       </c>
       <c r="O43" s="3">
@@ -22506,11 +22506,11 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <f>(B43-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.37261724162835846</v>
       </c>
       <c r="S43" s="3">
-        <f>(C43-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -22546,7 +22546,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J44">
@@ -22566,7 +22566,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O44" s="3">
@@ -22581,11 +22581,11 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <f>(B44-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.46675212372394376</v>
       </c>
       <c r="S44" s="3">
-        <f>(C44-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
     </row>
@@ -22621,7 +22621,7 @@
         <v>29.178999999999998</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7073996752493622E-6</v>
       </c>
       <c r="J45">
@@ -22641,7 +22641,7 @@
         <v>29.178999999999998</v>
       </c>
       <c r="N45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8249862037583864E-6</v>
       </c>
       <c r="O45" s="3">
@@ -22656,11 +22656,11 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <f>(B45-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.41968468267615111</v>
       </c>
       <c r="S45" s="3">
-        <f>(C45-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
     </row>
@@ -22696,7 +22696,7 @@
         <v>31.166</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1638394816499477E-7</v>
       </c>
       <c r="J46">
@@ -22716,7 +22716,7 @@
         <v>31.166</v>
       </c>
       <c r="N46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4304904229915701E-7</v>
       </c>
       <c r="O46" s="3">
@@ -22731,11 +22731,11 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <f>(B46-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.41968468267615111</v>
       </c>
       <c r="S46" s="3">
-        <f>(C46-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
     </row>
@@ -22771,7 +22771,7 @@
         <v>35.822000000000003</v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8568561608832878E-7</v>
       </c>
       <c r="J47">
@@ -22791,7 +22791,7 @@
         <v>35.822000000000003</v>
       </c>
       <c r="N47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.7439243204448079E-7</v>
       </c>
       <c r="O47" s="3">
@@ -22806,11 +22806,11 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <f>(B47-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>3.9222867539827492E-3</v>
       </c>
       <c r="S47" s="3">
-        <f>(C47-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>0.14724942915717007</v>
       </c>
     </row>
@@ -22846,7 +22846,7 @@
         <v>17.771000000000001</v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6577050615715489E-8</v>
       </c>
       <c r="J48">
@@ -22866,7 +22866,7 @@
         <v>17.771000000000001</v>
       </c>
       <c r="N48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.8439173370510088E-8</v>
       </c>
       <c r="O48" s="3">
@@ -22881,11 +22881,11 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <f>(B48-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>5.4166780072501375</v>
       </c>
       <c r="S48" s="3">
-        <f>(C48-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>4.4967710288766547</v>
       </c>
     </row>
@@ -22921,7 +22921,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J49">
@@ -22941,7 +22941,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O49" s="3">
@@ -22956,11 +22956,11 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <f>(B49-AVERAGE($B$2:$B$49))/_xlfn.STDEV.S($B$2:$B$49)</f>
+        <f t="shared" si="0"/>
         <v>-0.41968468267615111</v>
       </c>
       <c r="S49" s="3">
-        <f>(C49-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
+        <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
     </row>
@@ -22974,7 +22974,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/data clean/prediction.xlsx
+++ b/resources/data clean/prediction.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="1" r:id="rId1"/>
     <sheet name="2008rank" sheetId="10" r:id="rId2"/>
     <sheet name="2012" sheetId="2" r:id="rId3"/>
     <sheet name="2016" sheetId="4" r:id="rId4"/>
-    <sheet name="econ" sheetId="13" r:id="rId5"/>
-    <sheet name="gold" sheetId="5" r:id="rId6"/>
-    <sheet name="gold1" sheetId="15" r:id="rId7"/>
-    <sheet name="silver" sheetId="6" r:id="rId8"/>
-    <sheet name="bronze" sheetId="7" r:id="rId9"/>
-    <sheet name="rank" sheetId="9" r:id="rId10"/>
+    <sheet name="2014_econ" sheetId="16" r:id="rId5"/>
+    <sheet name="econ" sheetId="13" r:id="rId6"/>
+    <sheet name="gold" sheetId="5" r:id="rId7"/>
+    <sheet name="gold1" sheetId="15" r:id="rId8"/>
+    <sheet name="silver" sheetId="6" r:id="rId9"/>
+    <sheet name="bronze" sheetId="7" r:id="rId10"/>
+    <sheet name="rank" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2012'!$A$1:$L$100</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="441">
   <si>
     <t>AFG</t>
   </si>
@@ -909,6 +910,459 @@
   </si>
   <si>
     <t>2008_rev/pop</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>ABW</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>ARB</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>CEB</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>CUW</t>
+  </si>
+  <si>
+    <t>CYM</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>EAP</t>
+  </si>
+  <si>
+    <t>EAR</t>
+  </si>
+  <si>
+    <t>EAS</t>
+  </si>
+  <si>
+    <t>ECA</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>EMU</t>
+  </si>
+  <si>
+    <t>EUU</t>
+  </si>
+  <si>
+    <t>FCS</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>FRO</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>GRL</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>HIC</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>HPC</t>
+  </si>
+  <si>
+    <t>IBD</t>
+  </si>
+  <si>
+    <t>IBT</t>
+  </si>
+  <si>
+    <t>IDA</t>
+  </si>
+  <si>
+    <t>IDB</t>
+  </si>
+  <si>
+    <t>IDX</t>
+  </si>
+  <si>
+    <t>IMN</t>
+  </si>
+  <si>
+    <t>INX</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>KSV</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>LCN</t>
+  </si>
+  <si>
+    <t>LDC</t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>LMC</t>
+  </si>
+  <si>
+    <t>LMY</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>LTE</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>MNA</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>NAC</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NRU</t>
+  </si>
+  <si>
+    <t>OED</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>OSS</t>
+  </si>
+  <si>
+    <t>PLW</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>PYF</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SSF</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>SXM</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>TEC</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>TLA</t>
+  </si>
+  <si>
+    <t>TMN</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>TSA</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>TUV</t>
+  </si>
+  <si>
+    <t>UMC</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>VGB</t>
+  </si>
+  <si>
+    <t>VIR</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>WSM</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>2014_CPI</t>
+  </si>
+  <si>
+    <t>2014_GDP</t>
+  </si>
+  <si>
+    <t>2014_POP</t>
+  </si>
+  <si>
+    <t>2014_revenue</t>
+  </si>
+  <si>
+    <t>#note: since 2016 economics data is missing, we try to use 2014 data instead to do prediction on 2020.</t>
+  </si>
+  <si>
+    <t>2008_s</t>
+  </si>
+  <si>
+    <t>2012_s</t>
+  </si>
+  <si>
+    <t>2016_s</t>
   </si>
 </sst>
 </file>
@@ -962,11 +1416,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3019,6 +3474,1429 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>2008</v>
+      </c>
+      <c r="C1">
+        <v>2012</v>
+      </c>
+      <c r="D1">
+        <v>2016</v>
+      </c>
+      <c r="E1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(A2,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(A3,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(A3,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP(A4,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP(A5,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP(A6,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(A7,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(A8,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP(A8,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>VLOOKUP(A9,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP(A9,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>VLOOKUP(A10,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP(A10,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(A11,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP(A11,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(A12,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP(A12,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(A13,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(A13,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(A14,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP(A14,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="e">
+        <f>VLOOKUP(A15,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" t="e">
+        <f>VLOOKUP(A15,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP(A16,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP(A16,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="e">
+        <f>VLOOKUP(A17,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" t="e">
+        <f>VLOOKUP(A17,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(A18,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(A18,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP(A19,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(A19,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP(A20,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP(A20,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>VLOOKUP(A21,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP(A21,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <f>VLOOKUP(A22,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP(A22,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP(A23,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP(A23,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="e">
+        <f>VLOOKUP(A24,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" t="e">
+        <f>VLOOKUP(A24,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP(A25,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP(A25,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <f>VLOOKUP(A26,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP(A26,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f>VLOOKUP(A27,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP(A27,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f>VLOOKUP(A28,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP(A28,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f>VLOOKUP(A29,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP(A29,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <f>VLOOKUP(A30,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP(A30,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <f>VLOOKUP(A31,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP(A31,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f>VLOOKUP(A32,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP(A32,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP(A33,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP(A33,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f>VLOOKUP(A34,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP(A34,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <f>VLOOKUP(A35,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP(A35,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <f>VLOOKUP(A36,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP(A36,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <f>VLOOKUP(A37,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP(A37,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP(A38,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP(A38,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <f>VLOOKUP(A39,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP(A39,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="e">
+        <f>VLOOKUP(A40,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D40" t="e">
+        <f>VLOOKUP(A40,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f>VLOOKUP(A41,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP(A41,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <f>VLOOKUP(A42,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP(A42,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <f>VLOOKUP(A43,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <f>VLOOKUP(A43,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <f>VLOOKUP(A44,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <f>VLOOKUP(A44,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <f>VLOOKUP(A45,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <f>VLOOKUP(A45,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <f>VLOOKUP(A46,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <f>VLOOKUP(A46,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="e">
+        <f>VLOOKUP(A47,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D47" t="e">
+        <f>VLOOKUP(A47,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <f>VLOOKUP(A48,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <f>VLOOKUP(A48,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f>VLOOKUP(A49,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP(A49,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <f>VLOOKUP(A50,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <f>VLOOKUP(A50,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <f>VLOOKUP(A51,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP(A51,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>VLOOKUP(A52,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP(A52,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f>VLOOKUP(A53,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP(A53,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <f>VLOOKUP(A54,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP(A54,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>VLOOKUP(A55,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP(A55,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="e">
+        <f>VLOOKUP(A56,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D56" t="e">
+        <f>VLOOKUP(A56,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <f>VLOOKUP(A57,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP(A57,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <f>VLOOKUP(A58,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP(A58,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <f>VLOOKUP(A59,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <f>VLOOKUP(A59,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <f>VLOOKUP(A60,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <f>VLOOKUP(A60,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="e">
+        <f>VLOOKUP(A61,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D61" t="e">
+        <f>VLOOKUP(A61,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f>VLOOKUP(A62,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <f>VLOOKUP(A62,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>VLOOKUP(A63,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f>VLOOKUP(A63,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <f>VLOOKUP(A64,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <f>VLOOKUP(A64,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <f>VLOOKUP(A65,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <f>VLOOKUP(A65,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>VLOOKUP(A66,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <f>VLOOKUP(A66,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>56</v>
+      </c>
+      <c r="C67">
+        <f>VLOOKUP(A67,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="D67">
+        <f>VLOOKUP(A67,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>VLOOKUP(A68,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <f>VLOOKUP(A68,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <f>VLOOKUP(A69,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <f>VLOOKUP(A69,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <f>VLOOKUP(A70,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <f>VLOOKUP(A70,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="e">
+        <f>VLOOKUP(A71,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D71" t="e">
+        <f>VLOOKUP(A71,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <f>VLOOKUP(A72,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f>VLOOKUP(A72,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <f>VLOOKUP(A73,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <f>VLOOKUP(A73,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <f>VLOOKUP(A74,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <f>VLOOKUP(A74,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>VLOOKUP(A75,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <f>VLOOKUP(A75,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <f>VLOOKUP(A76,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <f>VLOOKUP(A76,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="e">
+        <f>VLOOKUP(A77,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D77" t="e">
+        <f>VLOOKUP(A77,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <f>VLOOKUP(A78,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <f>VLOOKUP(A78,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f>VLOOKUP(A79,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <f>VLOOKUP(A79,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f>VLOOKUP(A80,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <f>VLOOKUP(A80,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <f>VLOOKUP(A81,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <f>VLOOKUP(A81,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <f>VLOOKUP(A82,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <f>VLOOKUP(A82,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <f>VLOOKUP(A83,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D83">
+        <f>VLOOKUP(A83,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <f>VLOOKUP(A84,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <f>VLOOKUP(A84,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <f>VLOOKUP(A85,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f>VLOOKUP(A85,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f>VLOOKUP(A86,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f>VLOOKUP(A86,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="e">
+        <f>VLOOKUP(A87,'2012'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D87" t="e">
+        <f>VLOOKUP(A87,'2016'!$A$2:$E$100,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
@@ -9761,10 +11639,3662 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E269"/>
+  <sheetViews>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2">
+        <v>103441</v>
+      </c>
+      <c r="E2">
+        <v>0.42099817216893598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3">
+        <v>72786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>31627506</v>
+      </c>
+      <c r="C4">
+        <v>20050189881.665901</v>
+      </c>
+      <c r="E4">
+        <v>4.6043340090053402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5">
+        <v>24227524</v>
+      </c>
+      <c r="C5">
+        <v>126775134686.437</v>
+      </c>
+      <c r="E5">
+        <v>7.2795615410536199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6">
+        <v>2893654</v>
+      </c>
+      <c r="C6">
+        <v>13277963807.0823</v>
+      </c>
+      <c r="E6">
+        <v>1.63177798824094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7">
+        <v>384222592</v>
+      </c>
+      <c r="C7">
+        <v>2873599811404.5898</v>
+      </c>
+      <c r="E7">
+        <v>2.88942120489487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8">
+        <v>9086139</v>
+      </c>
+      <c r="C8">
+        <v>399451327433.62799</v>
+      </c>
+      <c r="D8">
+        <v>3.0371373124571801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>42980026</v>
+      </c>
+      <c r="C9">
+        <v>529726189460.922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3006154</v>
+      </c>
+      <c r="C10">
+        <v>11644438422.9844</v>
+      </c>
+      <c r="E10">
+        <v>2.9809880730236902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11">
+        <v>55434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12">
+        <v>90900</v>
+      </c>
+      <c r="C12">
+        <v>1220976000</v>
+      </c>
+      <c r="E12">
+        <v>1.0894415743535899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>23464086</v>
+      </c>
+      <c r="C13">
+        <v>1454675479665.8401</v>
+      </c>
+      <c r="D13">
+        <v>24.615386557177999</v>
+      </c>
+      <c r="E13">
+        <v>2.4879227053140198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>8541575</v>
+      </c>
+      <c r="C14">
+        <v>436887543466.95001</v>
+      </c>
+      <c r="D14">
+        <v>44.946948420836598</v>
+      </c>
+      <c r="E14">
+        <v>1.6058056048798099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>9535079</v>
+      </c>
+      <c r="C15">
+        <v>75198010965.191895</v>
+      </c>
+      <c r="E15">
+        <v>1.38502893070292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16">
+        <v>10816860</v>
+      </c>
+      <c r="C16">
+        <v>3093647226.8106999</v>
+      </c>
+      <c r="E16">
+        <v>4.3798400406246101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>11231213</v>
+      </c>
+      <c r="C17">
+        <v>531234803749.453</v>
+      </c>
+      <c r="D17">
+        <v>42.670376216259399</v>
+      </c>
+      <c r="E17">
+        <v>0.34000000000000702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18">
+        <v>10598482</v>
+      </c>
+      <c r="C18">
+        <v>9575356734.7269001</v>
+      </c>
+      <c r="E18">
+        <v>-1.0857444685718201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19">
+        <v>17589198</v>
+      </c>
+      <c r="C19">
+        <v>12549126616.146999</v>
+      </c>
+      <c r="D19">
+        <v>17.1600602032544</v>
+      </c>
+      <c r="E19">
+        <v>-0.25808951753504999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20">
+        <v>159077513</v>
+      </c>
+      <c r="C20">
+        <v>172885454931.453</v>
+      </c>
+      <c r="E20">
+        <v>6.9911653270068301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21">
+        <v>7223938</v>
+      </c>
+      <c r="C21">
+        <v>56717054673.721397</v>
+      </c>
+      <c r="E21">
+        <v>-1.4181226615414499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22">
+        <v>1361930</v>
+      </c>
+      <c r="C22">
+        <v>33851063829.787201</v>
+      </c>
+      <c r="E22">
+        <v>2.6511954992970499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23">
+        <v>383054</v>
+      </c>
+      <c r="C23">
+        <v>8510500000</v>
+      </c>
+      <c r="E23">
+        <v>1.5044643988478399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24">
+        <v>3817554</v>
+      </c>
+      <c r="C24">
+        <v>18521476054.809399</v>
+      </c>
+      <c r="D24">
+        <v>39.495314442089096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>9483000</v>
+      </c>
+      <c r="C25">
+        <v>76103961203.440598</v>
+      </c>
+      <c r="E25">
+        <v>18.119554352673401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26">
+        <v>351706</v>
+      </c>
+      <c r="C26">
+        <v>1717861750</v>
+      </c>
+      <c r="E26">
+        <v>1.20139964480964</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27">
+        <v>65139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28">
+        <v>10561887</v>
+      </c>
+      <c r="C28">
+        <v>32996187988.4226</v>
+      </c>
+      <c r="E28">
+        <v>5.7835637222823504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>206077898</v>
+      </c>
+      <c r="C29">
+        <v>2417046323841.8999</v>
+      </c>
+      <c r="E29">
+        <v>6.3320923420523103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30">
+        <v>283380</v>
+      </c>
+      <c r="C30">
+        <v>4354500000</v>
+      </c>
+      <c r="E30">
+        <v>1.8871702457828501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31">
+        <v>417394</v>
+      </c>
+      <c r="C31">
+        <v>17104656669.2976</v>
+      </c>
+      <c r="E31">
+        <v>-0.19442629174602299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32">
+        <v>765008</v>
+      </c>
+      <c r="C32">
+        <v>1958819914.9591601</v>
+      </c>
+      <c r="E32">
+        <v>8.2065451461993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>307</v>
+      </c>
+      <c r="B33">
+        <v>2219937</v>
+      </c>
+      <c r="C33">
+        <v>15880195735.2892</v>
+      </c>
+      <c r="E33">
+        <v>4.4031359400426098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34">
+        <v>4804316</v>
+      </c>
+      <c r="C34">
+        <v>1691091491.96525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>35543658</v>
+      </c>
+      <c r="C35">
+        <v>1783775590895.9299</v>
+      </c>
+      <c r="D35">
+        <v>17.193492488506301</v>
+      </c>
+      <c r="E35">
+        <v>1.90663590717818</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36">
+        <v>103496179</v>
+      </c>
+      <c r="C36">
+        <v>1457646238322.6799</v>
+      </c>
+      <c r="D36">
+        <v>25.022371133274</v>
+      </c>
+      <c r="E36">
+        <v>0.106494137252986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37">
+        <v>8188649</v>
+      </c>
+      <c r="C37">
+        <v>701037135966.04895</v>
+      </c>
+      <c r="E37">
+        <v>-1.31860440706863E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>162917</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39">
+        <v>17762647</v>
+      </c>
+      <c r="C39">
+        <v>258733363811.89801</v>
+      </c>
+      <c r="D39">
+        <v>20.710125223043299</v>
+      </c>
+      <c r="E39">
+        <v>4.3950000000000502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>1364270000</v>
+      </c>
+      <c r="C40">
+        <v>10351111762216.4</v>
+      </c>
+      <c r="E40">
+        <v>1.99684708355259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41">
+        <v>22157107</v>
+      </c>
+      <c r="C41">
+        <v>34253607832.488899</v>
+      </c>
+      <c r="D41">
+        <v>15.1578170377555</v>
+      </c>
+      <c r="E41">
+        <v>0.45303045973480999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>22773014</v>
+      </c>
+      <c r="C42">
+        <v>32050817632.960201</v>
+      </c>
+      <c r="E42">
+        <v>1.9479482676040301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B43">
+        <v>4504962</v>
+      </c>
+      <c r="C43">
+        <v>14177437627.2969</v>
+      </c>
+      <c r="E43">
+        <v>7.7160493826933699E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>47791393</v>
+      </c>
+      <c r="C44">
+        <v>378416020533.71503</v>
+      </c>
+      <c r="D44">
+        <v>26.2088951110618</v>
+      </c>
+      <c r="E44">
+        <v>2.87781025113821</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>311</v>
+      </c>
+      <c r="B45">
+        <v>769991</v>
+      </c>
+      <c r="C45">
+        <v>623751044.541731</v>
+      </c>
+      <c r="E45">
+        <v>0.578747501881133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>312</v>
+      </c>
+      <c r="B46">
+        <v>513906</v>
+      </c>
+      <c r="C46">
+        <v>1871187070.9953401</v>
+      </c>
+      <c r="E46">
+        <v>-0.24363079493276299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47">
+        <v>4757606</v>
+      </c>
+      <c r="C47">
+        <v>49552639049.244598</v>
+      </c>
+      <c r="D47">
+        <v>24.217832797132299</v>
+      </c>
+      <c r="E47">
+        <v>4.5153126769762402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>313</v>
+      </c>
+      <c r="B48">
+        <v>7012857</v>
+      </c>
+      <c r="C48">
+        <v>71327803910.282104</v>
+      </c>
+      <c r="E48">
+        <v>1.20139964480964</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>11379111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>314</v>
+      </c>
+      <c r="B50">
+        <v>155909</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>315</v>
+      </c>
+      <c r="B51">
+        <v>59172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52">
+        <v>1153658</v>
+      </c>
+      <c r="C52">
+        <v>23227106275.706501</v>
+      </c>
+      <c r="D52">
+        <v>39.213950201842003</v>
+      </c>
+      <c r="E52">
+        <v>-1.3549888544636699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>10525347</v>
+      </c>
+      <c r="C53">
+        <v>205269709743.466</v>
+      </c>
+      <c r="E53">
+        <v>0.337186897880699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54">
+        <v>80982500</v>
+      </c>
+      <c r="C54">
+        <v>3868291231823.77</v>
+      </c>
+      <c r="D54">
+        <v>28.626927100303501</v>
+      </c>
+      <c r="E54">
+        <v>0.90679703516765697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55">
+        <v>876174</v>
+      </c>
+      <c r="C55">
+        <v>1589025859.8457301</v>
+      </c>
+      <c r="E55">
+        <v>2.8872761447295101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>316</v>
+      </c>
+      <c r="B56">
+        <v>72341</v>
+      </c>
+      <c r="C56">
+        <v>524605000</v>
+      </c>
+      <c r="E56">
+        <v>0.79913976392383002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57">
+        <v>5643475</v>
+      </c>
+      <c r="C57">
+        <v>346119472127.52502</v>
+      </c>
+      <c r="E57">
+        <v>0.564020540449505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58">
+        <v>10405943</v>
+      </c>
+      <c r="C58">
+        <v>63968906782.0737</v>
+      </c>
+      <c r="E58">
+        <v>2.99864226125157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59">
+        <v>38934334</v>
+      </c>
+      <c r="C59">
+        <v>213518488688.12</v>
+      </c>
+      <c r="E59">
+        <v>2.9164064126589602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60">
+        <v>2020656037</v>
+      </c>
+      <c r="C60">
+        <v>12613483230942</v>
+      </c>
+      <c r="E60">
+        <v>3.8552385534790501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>318</v>
+      </c>
+      <c r="B61">
+        <v>3079001949</v>
+      </c>
+      <c r="C61">
+        <v>10250921739825</v>
+      </c>
+      <c r="E61">
+        <v>4.4031359400426098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>319</v>
+      </c>
+      <c r="B62">
+        <v>2264064351</v>
+      </c>
+      <c r="C62">
+        <v>21489750195353.898</v>
+      </c>
+      <c r="E62">
+        <v>2.7488546438983699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>320</v>
+      </c>
+      <c r="B63">
+        <v>408984246</v>
+      </c>
+      <c r="C63">
+        <v>3855117220952.1899</v>
+      </c>
+      <c r="D63">
+        <v>30.4805396947534</v>
+      </c>
+      <c r="E63">
+        <v>3.0688121037954201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64">
+        <v>903987814</v>
+      </c>
+      <c r="C64">
+        <v>23364556897812.898</v>
+      </c>
+      <c r="D64">
+        <v>34.434540370140802</v>
+      </c>
+      <c r="E64">
+        <v>0.60851926977687798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <v>15902916</v>
+      </c>
+      <c r="C65">
+        <v>100917372000</v>
+      </c>
+      <c r="E65">
+        <v>3.5731278504364501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66">
+        <v>89579670</v>
+      </c>
+      <c r="C66">
+        <v>301498960051.63898</v>
+      </c>
+      <c r="E66">
+        <v>10.1458005507475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67">
+        <v>338617134</v>
+      </c>
+      <c r="C67">
+        <v>13407425497263.801</v>
+      </c>
+      <c r="D67">
+        <v>35.215114423842699</v>
+      </c>
+      <c r="E67">
+        <v>0.24105754276796601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69">
+        <v>46480882</v>
+      </c>
+      <c r="C69">
+        <v>1381342101735.6799</v>
+      </c>
+      <c r="D69">
+        <v>16.557397518152801</v>
+      </c>
+      <c r="E69">
+        <v>-0.147031810368282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70">
+        <v>1314545</v>
+      </c>
+      <c r="C70">
+        <v>26485161115.944599</v>
+      </c>
+      <c r="E70">
+        <v>-0.14481551946746099</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71">
+        <v>96958732</v>
+      </c>
+      <c r="C71">
+        <v>55612228233.517899</v>
+      </c>
+      <c r="E71">
+        <v>7.3918144799502796</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>323</v>
+      </c>
+      <c r="B72">
+        <v>508344735</v>
+      </c>
+      <c r="C72">
+        <v>18516744672413.102</v>
+      </c>
+      <c r="D72">
+        <v>34.6137105038082</v>
+      </c>
+      <c r="E72">
+        <v>0.22056620035400501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>324</v>
+      </c>
+      <c r="B73">
+        <v>474395380</v>
+      </c>
+      <c r="C73">
+        <v>779682093940.59399</v>
+      </c>
+      <c r="E73">
+        <v>3.8194567838996401</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74">
+        <v>5461512</v>
+      </c>
+      <c r="C74">
+        <v>272335981538.93701</v>
+      </c>
+      <c r="D74">
+        <v>39.096693103649898</v>
+      </c>
+      <c r="E74">
+        <v>1.0412000061798501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>325</v>
+      </c>
+      <c r="B75">
+        <v>886450</v>
+      </c>
+      <c r="C75">
+        <v>4531870926.7207098</v>
+      </c>
+      <c r="E75">
+        <v>0.54032889584964405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76">
+        <v>66495940</v>
+      </c>
+      <c r="C76">
+        <v>2829192039171.8398</v>
+      </c>
+      <c r="D76">
+        <v>45.409983075796902</v>
+      </c>
+      <c r="E76">
+        <v>0.50770067278582098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77">
+        <v>48221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>327</v>
+      </c>
+      <c r="B78">
+        <v>104044</v>
+      </c>
+      <c r="C78">
+        <v>318071978.57574701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79">
+        <v>1687673</v>
+      </c>
+      <c r="C79">
+        <v>18179717776.159698</v>
+      </c>
+      <c r="E79">
+        <v>4.6556078913233598</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80">
+        <v>64613160</v>
+      </c>
+      <c r="C80">
+        <v>2990201431078.23</v>
+      </c>
+      <c r="D80">
+        <v>34.625755406293301</v>
+      </c>
+      <c r="E80">
+        <v>1.46019160885392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81">
+        <v>3727000</v>
+      </c>
+      <c r="C81">
+        <v>16509305827.7171</v>
+      </c>
+      <c r="E81">
+        <v>3.0688121037954201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82">
+        <v>26786598</v>
+      </c>
+      <c r="C82">
+        <v>38616536131.648003</v>
+      </c>
+      <c r="E82">
+        <v>15.493168072874299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83">
+        <v>31997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84">
+        <v>12275527</v>
+      </c>
+      <c r="C84">
+        <v>6624068015.5003901</v>
+      </c>
+      <c r="E84">
+        <v>9.7139773340528901</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>330</v>
+      </c>
+      <c r="B85">
+        <v>1928201</v>
+      </c>
+      <c r="C85">
+        <v>850903179.26094794</v>
+      </c>
+      <c r="E85">
+        <v>5.9473749217504999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>331</v>
+      </c>
+      <c r="B86">
+        <v>1800513</v>
+      </c>
+      <c r="C86">
+        <v>1109009637.65258</v>
+      </c>
+      <c r="E86">
+        <v>-1.50924460570441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87">
+        <v>820885</v>
+      </c>
+      <c r="C87">
+        <v>15529729676.688601</v>
+      </c>
+      <c r="E87">
+        <v>4.8250895792545503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88">
+        <v>10892413</v>
+      </c>
+      <c r="C88">
+        <v>235574074998.314</v>
+      </c>
+      <c r="D88">
+        <v>45.040133328076003</v>
+      </c>
+      <c r="E88">
+        <v>-1.3122424106752899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>333</v>
+      </c>
+      <c r="B89">
+        <v>106349</v>
+      </c>
+      <c r="C89">
+        <v>911803777.77777803</v>
+      </c>
+      <c r="E89">
+        <v>-0.94675729903372696</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90">
+        <v>56295</v>
+      </c>
+      <c r="C90">
+        <v>2441226080.0361099</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91">
+        <v>16015494</v>
+      </c>
+      <c r="C91">
+        <v>58722323918.1604</v>
+      </c>
+      <c r="E91">
+        <v>3.4183616966302499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>336</v>
+      </c>
+      <c r="B92">
+        <v>167543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>243</v>
+      </c>
+      <c r="B93">
+        <v>763893</v>
+      </c>
+      <c r="C93">
+        <v>3077086275.9458499</v>
+      </c>
+      <c r="E93">
+        <v>0.92076972435173499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>337</v>
+      </c>
+      <c r="B94">
+        <v>1180597445</v>
+      </c>
+      <c r="C94">
+        <v>49974206838027.297</v>
+      </c>
+      <c r="D94">
+        <v>26.8277745700243</v>
+      </c>
+      <c r="E94">
+        <v>0.90669811699348601</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95">
+        <v>7241700</v>
+      </c>
+      <c r="C95">
+        <v>291229801008.49902</v>
+      </c>
+      <c r="E95">
+        <v>4.4309296264118299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>338</v>
+      </c>
+      <c r="B96">
+        <v>7961680</v>
+      </c>
+      <c r="C96">
+        <v>19380958759.049702</v>
+      </c>
+      <c r="D96">
+        <v>23.3968020117814</v>
+      </c>
+      <c r="E96">
+        <v>6.1292493031300603</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>339</v>
+      </c>
+      <c r="B97">
+        <v>701714118</v>
+      </c>
+      <c r="C97">
+        <v>631606458921.81396</v>
+      </c>
+      <c r="E97">
+        <v>4.3798400406246101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98">
+        <v>4238389</v>
+      </c>
+      <c r="C98">
+        <v>57136241867.019203</v>
+      </c>
+      <c r="E98">
+        <v>-0.21519615957562399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99">
+        <v>10572029</v>
+      </c>
+      <c r="C99">
+        <v>8776370457.0206909</v>
+      </c>
+      <c r="E99">
+        <v>4.5661735305874398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100">
+        <v>9866468</v>
+      </c>
+      <c r="C100">
+        <v>138346650088.97198</v>
+      </c>
+      <c r="D100">
+        <v>42.932235530350098</v>
+      </c>
+      <c r="E100">
+        <v>-0.222315060726337</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>340</v>
+      </c>
+      <c r="B101">
+        <v>4499429071</v>
+      </c>
+      <c r="C101">
+        <v>26714882940257.5</v>
+      </c>
+      <c r="E101">
+        <v>3.30789625766185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>341</v>
+      </c>
+      <c r="B102">
+        <v>6104461024</v>
+      </c>
+      <c r="C102">
+        <v>28978306766045.301</v>
+      </c>
+      <c r="E102">
+        <v>3.7141832019577499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>342</v>
+      </c>
+      <c r="B103">
+        <v>1605031953</v>
+      </c>
+      <c r="C103">
+        <v>2265822106242.5698</v>
+      </c>
+      <c r="E103">
+        <v>4.2117178166689104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>343</v>
+      </c>
+      <c r="B104">
+        <v>573991143</v>
+      </c>
+      <c r="C104">
+        <v>1278620145195.8401</v>
+      </c>
+      <c r="E104">
+        <v>3.2778256292466201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105">
+        <v>254454778</v>
+      </c>
+      <c r="C105">
+        <v>890487074595.96594</v>
+      </c>
+      <c r="E105">
+        <v>6.3949254081992297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>344</v>
+      </c>
+      <c r="B106">
+        <v>1031040810</v>
+      </c>
+      <c r="C106">
+        <v>976357340890.047</v>
+      </c>
+      <c r="E106">
+        <v>4.5661735305874398</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>345</v>
+      </c>
+      <c r="B107">
+        <v>87127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108">
+        <v>1295291543</v>
+      </c>
+      <c r="C108">
+        <v>2042438591343.98</v>
+      </c>
+      <c r="E108">
+        <v>6.3531945441493196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110">
+        <v>4617225</v>
+      </c>
+      <c r="C110">
+        <v>250813607686.108</v>
+      </c>
+      <c r="D110">
+        <v>32.484915981418403</v>
+      </c>
+      <c r="E110">
+        <v>0.19678583142013201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>347</v>
+      </c>
+      <c r="B111">
+        <v>78143644</v>
+      </c>
+      <c r="C111">
+        <v>425326068422.88098</v>
+      </c>
+      <c r="E111">
+        <v>17.2353586750476</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112">
+        <v>35273293</v>
+      </c>
+      <c r="C112">
+        <v>223508094682.67599</v>
+      </c>
+      <c r="E112">
+        <v>2.2359740790467599</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113">
+        <v>327386</v>
+      </c>
+      <c r="C113">
+        <v>17036097481.806601</v>
+      </c>
+      <c r="D113">
+        <v>33.969870551357303</v>
+      </c>
+      <c r="E113">
+        <v>2.0349997149860202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114">
+        <v>8215700</v>
+      </c>
+      <c r="C114">
+        <v>305674837195.00299</v>
+      </c>
+      <c r="D114">
+        <v>32.725872195704703</v>
+      </c>
+      <c r="E114">
+        <v>0.47595601509895402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115">
+        <v>60789140</v>
+      </c>
+      <c r="C115">
+        <v>2138540909211.1201</v>
+      </c>
+      <c r="D115">
+        <v>39.017075307369403</v>
+      </c>
+      <c r="E115">
+        <v>0.24105754276796601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>47</v>
+      </c>
+      <c r="B116">
+        <v>2720554</v>
+      </c>
+      <c r="C116">
+        <v>13927110141.57</v>
+      </c>
+      <c r="D116">
+        <v>31.145413227339599</v>
+      </c>
+      <c r="E116">
+        <v>8.2900057770076891</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117">
+        <v>7416083</v>
+      </c>
+      <c r="C117">
+        <v>35826925774.647903</v>
+      </c>
+      <c r="E117">
+        <v>2.8915662650602401</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118">
+        <v>127131800</v>
+      </c>
+      <c r="C118">
+        <v>4596156556721.9004</v>
+      </c>
+      <c r="E118">
+        <v>2.7488546438983699</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119">
+        <v>17289224</v>
+      </c>
+      <c r="C119">
+        <v>227437054841.26801</v>
+      </c>
+      <c r="E119">
+        <v>6.7183065797864696</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120">
+        <v>44863583</v>
+      </c>
+      <c r="C120">
+        <v>61395415492.333</v>
+      </c>
+      <c r="E120">
+        <v>6.87749809668873</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121">
+        <v>5835500</v>
+      </c>
+      <c r="C121">
+        <v>7468096566.7115803</v>
+      </c>
+      <c r="E121">
+        <v>7.5342472977582702</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>348</v>
+      </c>
+      <c r="B122">
+        <v>15328136</v>
+      </c>
+      <c r="C122">
+        <v>16777820332.7059</v>
+      </c>
+      <c r="D122">
+        <v>16.504654807529899</v>
+      </c>
+      <c r="E122">
+        <v>3.8552385534790501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>349</v>
+      </c>
+      <c r="B123">
+        <v>110470</v>
+      </c>
+      <c r="C123">
+        <v>166756805.48043999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>350</v>
+      </c>
+      <c r="B124">
+        <v>54944</v>
+      </c>
+      <c r="C124">
+        <v>864766185.18518496</v>
+      </c>
+      <c r="E124">
+        <v>0.247865392364811</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125">
+        <v>50423955</v>
+      </c>
+      <c r="C125">
+        <v>1411333926201.24</v>
+      </c>
+      <c r="E125">
+        <v>1.2724064270456099</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126">
+        <v>1812771</v>
+      </c>
+      <c r="C126">
+        <v>7384901154.3054304</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127">
+        <v>3753121</v>
+      </c>
+      <c r="C127">
+        <v>163612438510.19</v>
+      </c>
+      <c r="E127">
+        <v>2.9089009287925802</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>352</v>
+      </c>
+      <c r="B128">
+        <v>598846559</v>
+      </c>
+      <c r="C128">
+        <v>5752028928599.96</v>
+      </c>
+      <c r="E128">
+        <v>3.4684199392900799</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>353</v>
+      </c>
+      <c r="B129">
+        <v>6689300</v>
+      </c>
+      <c r="C129">
+        <v>11715619755.8584</v>
+      </c>
+      <c r="E129">
+        <v>4.1352263701344496</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>249</v>
+      </c>
+      <c r="B130">
+        <v>5612096</v>
+      </c>
+      <c r="C130">
+        <v>45730945273.631798</v>
+      </c>
+      <c r="D130">
+        <v>20.9473798727578</v>
+      </c>
+      <c r="E130">
+        <v>0.74971861123440098</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>354</v>
+      </c>
+      <c r="B131">
+        <v>4396554</v>
+      </c>
+      <c r="C131">
+        <v>2013000000</v>
+      </c>
+      <c r="E131">
+        <v>9.8263580431524797</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>355</v>
+      </c>
+      <c r="B132">
+        <v>6258984</v>
+      </c>
+      <c r="C132">
+        <v>41142722414.335098</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>356</v>
+      </c>
+      <c r="B133">
+        <v>183645</v>
+      </c>
+      <c r="C133">
+        <v>1404430555.5555601</v>
+      </c>
+      <c r="E133">
+        <v>3.51847818194992</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>357</v>
+      </c>
+      <c r="B134">
+        <v>626285603</v>
+      </c>
+      <c r="C134">
+        <v>6233845269243.1201</v>
+      </c>
+      <c r="E134">
+        <v>3.40405371155006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>358</v>
+      </c>
+      <c r="B135">
+        <v>931955068</v>
+      </c>
+      <c r="C135">
+        <v>924688533355.49805</v>
+      </c>
+      <c r="E135">
+        <v>4.5661735305874398</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>359</v>
+      </c>
+      <c r="B136">
+        <v>621322015</v>
+      </c>
+      <c r="C136">
+        <v>406539140685.159</v>
+      </c>
+      <c r="E136">
+        <v>3.7736413951890202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>360</v>
+      </c>
+      <c r="B137">
+        <v>37286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B138">
+        <v>20771000</v>
+      </c>
+      <c r="C138">
+        <v>80028186274.509796</v>
+      </c>
+      <c r="E138">
+        <v>3.2778256292466201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>361</v>
+      </c>
+      <c r="B139">
+        <v>2885248344</v>
+      </c>
+      <c r="C139">
+        <v>5864307408776.9902</v>
+      </c>
+      <c r="E139">
+        <v>5.2079395085066196</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>362</v>
+      </c>
+      <c r="B140">
+        <v>6080182833</v>
+      </c>
+      <c r="C140">
+        <v>28142020800788.699</v>
+      </c>
+      <c r="E140">
+        <v>3.93692787769481</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>363</v>
+      </c>
+      <c r="B141">
+        <v>2109197</v>
+      </c>
+      <c r="C141">
+        <v>2181300505.8649001</v>
+      </c>
+      <c r="E141">
+        <v>5.3403616771105398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>364</v>
+      </c>
+      <c r="B142">
+        <v>2235786397</v>
+      </c>
+      <c r="C142">
+        <v>19496143978060.699</v>
+      </c>
+      <c r="E142">
+        <v>2.0349997149860202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143">
+        <v>2932367</v>
+      </c>
+      <c r="C143">
+        <v>48353937110.256104</v>
+      </c>
+      <c r="D143">
+        <v>8.9533131001643902</v>
+      </c>
+      <c r="E143">
+        <v>0.106494137252986</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>251</v>
+      </c>
+      <c r="B144">
+        <v>556319</v>
+      </c>
+      <c r="C144">
+        <v>64873963098.486801</v>
+      </c>
+      <c r="D144">
+        <v>41.317972962283299</v>
+      </c>
+      <c r="E144">
+        <v>0.62974906921761098</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>252</v>
+      </c>
+      <c r="B145">
+        <v>1993782</v>
+      </c>
+      <c r="C145">
+        <v>31286809075.228901</v>
+      </c>
+      <c r="E145">
+        <v>0.60851926977687798</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>365</v>
+      </c>
+      <c r="B146">
+        <v>577914</v>
+      </c>
+      <c r="C146">
+        <v>55522993326.739403</v>
+      </c>
+      <c r="E146">
+        <v>6.04090194022025</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>366</v>
+      </c>
+      <c r="B147">
+        <v>31530</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>55</v>
+      </c>
+      <c r="B148">
+        <v>33921203</v>
+      </c>
+      <c r="C148">
+        <v>110009040838.41901</v>
+      </c>
+      <c r="E148">
+        <v>0.43545649125425601</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>367</v>
+      </c>
+      <c r="B149">
+        <v>37623</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>57</v>
+      </c>
+      <c r="B150">
+        <v>3556397</v>
+      </c>
+      <c r="C150">
+        <v>7983271110.6044598</v>
+      </c>
+      <c r="E150">
+        <v>5.0887858315915402</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>368</v>
+      </c>
+      <c r="B151">
+        <v>23571713</v>
+      </c>
+      <c r="C151">
+        <v>11011062173.0257</v>
+      </c>
+      <c r="E151">
+        <v>6.0805954825460002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>369</v>
+      </c>
+      <c r="B152">
+        <v>401000</v>
+      </c>
+      <c r="C152">
+        <v>3063899508.4653201</v>
+      </c>
+      <c r="E152">
+        <v>2.1201130958064698</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>370</v>
+      </c>
+      <c r="B153">
+        <v>416401841</v>
+      </c>
+      <c r="C153">
+        <v>3526990242139.0498</v>
+      </c>
+      <c r="E153">
+        <v>2.77890084944808</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>58</v>
+      </c>
+      <c r="B154">
+        <v>125385833</v>
+      </c>
+      <c r="C154">
+        <v>1297845522512.7</v>
+      </c>
+      <c r="E154">
+        <v>4.0186172019105797</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>371</v>
+      </c>
+      <c r="B155">
+        <v>52898</v>
+      </c>
+      <c r="C155">
+        <v>186716625.753117</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>372</v>
+      </c>
+      <c r="B156">
+        <v>5458860818</v>
+      </c>
+      <c r="C156">
+        <v>27735297151112.301</v>
+      </c>
+      <c r="E156">
+        <v>3.93692787769481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>373</v>
+      </c>
+      <c r="B157">
+        <v>2075625</v>
+      </c>
+      <c r="C157">
+        <v>11318966946.687</v>
+      </c>
+      <c r="E157">
+        <v>-0.28101806971815002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>374</v>
+      </c>
+      <c r="B158">
+        <v>17086022</v>
+      </c>
+      <c r="C158">
+        <v>14388384092.559401</v>
+      </c>
+      <c r="E158">
+        <v>0.89500918245426198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>375</v>
+      </c>
+      <c r="B159">
+        <v>427364</v>
+      </c>
+      <c r="E159">
+        <v>0.31150005782735901</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>376</v>
+      </c>
+      <c r="B160">
+        <v>53437159</v>
+      </c>
+      <c r="C160">
+        <v>64330041772.925903</v>
+      </c>
+      <c r="E160">
+        <v>5.4744647131894801</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>377</v>
+      </c>
+      <c r="B161">
+        <v>356262920</v>
+      </c>
+      <c r="C161">
+        <v>1559936679966.6499</v>
+      </c>
+      <c r="E161">
+        <v>2.8915662650602401</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162">
+        <v>621810</v>
+      </c>
+      <c r="C162">
+        <v>4587741791.10639</v>
+      </c>
+      <c r="E162">
+        <v>-0.71051405171059401</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>253</v>
+      </c>
+      <c r="B163">
+        <v>2909871</v>
+      </c>
+      <c r="C163">
+        <v>12226514714.5347</v>
+      </c>
+      <c r="E163">
+        <v>13.0246481115847</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>378</v>
+      </c>
+      <c r="B164">
+        <v>54541</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>254</v>
+      </c>
+      <c r="B165">
+        <v>27216276</v>
+      </c>
+      <c r="C165">
+        <v>16945889409.8435</v>
+      </c>
+      <c r="E165">
+        <v>2.5597487584432699</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>379</v>
+      </c>
+      <c r="B166">
+        <v>3969625</v>
+      </c>
+      <c r="C166">
+        <v>5442297174.1112099</v>
+      </c>
+      <c r="E166">
+        <v>3.53521885219096</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>255</v>
+      </c>
+      <c r="B167">
+        <v>1260934</v>
+      </c>
+      <c r="C167">
+        <v>12612959479.583</v>
+      </c>
+      <c r="D167">
+        <v>22.028019646375601</v>
+      </c>
+      <c r="E167">
+        <v>3.2176919199471801</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>380</v>
+      </c>
+      <c r="B168">
+        <v>16695253</v>
+      </c>
+      <c r="C168">
+        <v>6047813437.3180399</v>
+      </c>
+      <c r="E168">
+        <v>24.4336781458688</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>256</v>
+      </c>
+      <c r="B169">
+        <v>29901997</v>
+      </c>
+      <c r="C169">
+        <v>338103822298.26801</v>
+      </c>
+      <c r="E169">
+        <v>3.1429905087904002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>381</v>
+      </c>
+      <c r="B170">
+        <v>354516198</v>
+      </c>
+      <c r="C170">
+        <v>19137610976788.898</v>
+      </c>
+      <c r="D170">
+        <v>18.819288578237099</v>
+      </c>
+      <c r="E170">
+        <v>1.76442944229334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>257</v>
+      </c>
+      <c r="B171">
+        <v>2402858</v>
+      </c>
+      <c r="C171">
+        <v>12838336840.224701</v>
+      </c>
+      <c r="E171">
+        <v>5.3501696686129598</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>382</v>
+      </c>
+      <c r="B172">
+        <v>268000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>258</v>
+      </c>
+      <c r="B173">
+        <v>19113728</v>
+      </c>
+      <c r="C173">
+        <v>8245312136.5654297</v>
+      </c>
+      <c r="E173">
+        <v>-0.92454471999504795</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>259</v>
+      </c>
+      <c r="B174">
+        <v>177475986</v>
+      </c>
+      <c r="C174">
+        <v>568498939784.021</v>
+      </c>
+      <c r="E174">
+        <v>8.0573826264461204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>383</v>
+      </c>
+      <c r="B175">
+        <v>6013913</v>
+      </c>
+      <c r="C175">
+        <v>11790221756.2778</v>
+      </c>
+      <c r="E175">
+        <v>6.0357918680234404</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>260</v>
+      </c>
+      <c r="B176">
+        <v>16865008</v>
+      </c>
+      <c r="C176">
+        <v>879319321494.63904</v>
+      </c>
+      <c r="D176">
+        <v>39.8041552876564</v>
+      </c>
+      <c r="E176">
+        <v>0.97603507969960801</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>63</v>
+      </c>
+      <c r="B177">
+        <v>5137232</v>
+      </c>
+      <c r="C177">
+        <v>500519016133.29797</v>
+      </c>
+      <c r="D177">
+        <v>46.8949026411304</v>
+      </c>
+      <c r="E177">
+        <v>2.0250962852530701</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>384</v>
+      </c>
+      <c r="B178">
+        <v>28174724</v>
+      </c>
+      <c r="C178">
+        <v>19769642122.583302</v>
+      </c>
+      <c r="E178">
+        <v>8.3679787704551707</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>385</v>
+      </c>
+      <c r="B179">
+        <v>10176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>64</v>
+      </c>
+      <c r="B180">
+        <v>4509700</v>
+      </c>
+      <c r="C180">
+        <v>200142409766.82101</v>
+      </c>
+      <c r="D180">
+        <v>32.526687712592199</v>
+      </c>
+      <c r="E180">
+        <v>0.90659919881931506</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>386</v>
+      </c>
+      <c r="B181">
+        <v>1274981875</v>
+      </c>
+      <c r="C181">
+        <v>48795857349608.602</v>
+      </c>
+      <c r="D181">
+        <v>27.211369662052402</v>
+      </c>
+      <c r="E181">
+        <v>0.60851926977687798</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>387</v>
+      </c>
+      <c r="B182">
+        <v>4236057</v>
+      </c>
+      <c r="C182">
+        <v>81796618985.695694</v>
+      </c>
+      <c r="E182">
+        <v>1.01401483924155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>388</v>
+      </c>
+      <c r="B183">
+        <v>28142985</v>
+      </c>
+      <c r="C183">
+        <v>440527724679.48999</v>
+      </c>
+      <c r="E183">
+        <v>2.6511954992970499</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>261</v>
+      </c>
+      <c r="B184">
+        <v>185044286</v>
+      </c>
+      <c r="C184">
+        <v>243382758001.32999</v>
+      </c>
+      <c r="E184">
+        <v>7.1916711647014697</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>65</v>
+      </c>
+      <c r="B185">
+        <v>3867535</v>
+      </c>
+      <c r="C185">
+        <v>49165773100</v>
+      </c>
+      <c r="E185">
+        <v>2.63782935747804</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>262</v>
+      </c>
+      <c r="B186">
+        <v>30973148</v>
+      </c>
+      <c r="C186">
+        <v>202855201908.12299</v>
+      </c>
+      <c r="E186">
+        <v>3.22604678885383</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>263</v>
+      </c>
+      <c r="B187">
+        <v>99138690</v>
+      </c>
+      <c r="C187">
+        <v>284777093019.065</v>
+      </c>
+      <c r="E187">
+        <v>4.1044776119403004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>389</v>
+      </c>
+      <c r="B188">
+        <v>21097</v>
+      </c>
+      <c r="C188">
+        <v>250900000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>390</v>
+      </c>
+      <c r="B189">
+        <v>7463577</v>
+      </c>
+      <c r="C189">
+        <v>16928680397.418501</v>
+      </c>
+      <c r="E189">
+        <v>5.2079395085066196</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>66</v>
+      </c>
+      <c r="B190">
+        <v>38011735</v>
+      </c>
+      <c r="C190">
+        <v>544982089079.09302</v>
+      </c>
+      <c r="D190">
+        <v>20.376035543229001</v>
+      </c>
+      <c r="E190">
+        <v>0.106951871658061</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>391</v>
+      </c>
+      <c r="B191">
+        <v>826352062</v>
+      </c>
+      <c r="C191">
+        <v>1463901108696.4299</v>
+      </c>
+      <c r="E191">
+        <v>3.53521885219096</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>264</v>
+      </c>
+      <c r="B192">
+        <v>3534888</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>68</v>
+      </c>
+      <c r="B193">
+        <v>25026772</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>265</v>
+      </c>
+      <c r="B194">
+        <v>10401062</v>
+      </c>
+      <c r="C194">
+        <v>230116913840.32101</v>
+      </c>
+      <c r="D194">
+        <v>39.229125533232398</v>
+      </c>
+      <c r="E194">
+        <v>-0.27815336746785901</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>266</v>
+      </c>
+      <c r="B195">
+        <v>6552518</v>
+      </c>
+      <c r="C195">
+        <v>30881166852.3116</v>
+      </c>
+      <c r="E195">
+        <v>5.0288276745678502</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>392</v>
+      </c>
+      <c r="B196">
+        <v>2323513</v>
+      </c>
+      <c r="C196">
+        <v>8845723924.1012001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>393</v>
+      </c>
+      <c r="B197">
+        <v>1092938826</v>
+      </c>
+      <c r="C197">
+        <v>46299548879868.297</v>
+      </c>
+      <c r="D197">
+        <v>27.0852889461217</v>
+      </c>
+      <c r="E197">
+        <v>0.90669811699348601</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198">
+        <v>279781</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>186</v>
+      </c>
+      <c r="B199">
+        <v>2172065</v>
+      </c>
+      <c r="C199">
+        <v>210109340659.341</v>
+      </c>
+      <c r="E199">
+        <v>3.0824743127140599</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>69</v>
+      </c>
+      <c r="B200">
+        <v>19908979</v>
+      </c>
+      <c r="C200">
+        <v>199324435686.134</v>
+      </c>
+      <c r="D200">
+        <v>29.889128960926499</v>
+      </c>
+      <c r="E200">
+        <v>1.0689610220310299</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>71</v>
+      </c>
+      <c r="B201">
+        <v>143819569</v>
+      </c>
+      <c r="C201">
+        <v>2030972571014.27</v>
+      </c>
+      <c r="D201">
+        <v>27.529663542899499</v>
+      </c>
+      <c r="E201">
+        <v>7.8128950695322397</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>395</v>
+      </c>
+      <c r="B202">
+        <v>11341544</v>
+      </c>
+      <c r="C202">
+        <v>7912161659.7617998</v>
+      </c>
+      <c r="E202">
+        <v>1.7841004119677299</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>396</v>
+      </c>
+      <c r="B203">
+        <v>1721152580</v>
+      </c>
+      <c r="C203">
+        <v>2583577541978.9502</v>
+      </c>
+      <c r="E203">
+        <v>6.6721799355780798</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>267</v>
+      </c>
+      <c r="B204">
+        <v>30886545</v>
+      </c>
+      <c r="C204">
+        <v>753831466666.66699</v>
+      </c>
+      <c r="E204">
+        <v>2.6705255541666499</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>268</v>
+      </c>
+      <c r="B205">
+        <v>39350274</v>
+      </c>
+      <c r="C205">
+        <v>73814947340.898407</v>
+      </c>
+      <c r="E205">
+        <v>36.907763769077697</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>269</v>
+      </c>
+      <c r="B206">
+        <v>14672557</v>
+      </c>
+      <c r="C206">
+        <v>15657551477.2003</v>
+      </c>
+      <c r="E206">
+        <v>-1.0797448165866099</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>270</v>
+      </c>
+      <c r="B207">
+        <v>5469724</v>
+      </c>
+      <c r="C207">
+        <v>306344408491.83197</v>
+      </c>
+      <c r="E207">
+        <v>1.010101010101</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>397</v>
+      </c>
+      <c r="B208">
+        <v>572171</v>
+      </c>
+      <c r="C208">
+        <v>1158190175.3148999</v>
+      </c>
+      <c r="E208">
+        <v>5.1659023792521399</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>398</v>
+      </c>
+      <c r="B209">
+        <v>6315627</v>
+      </c>
+      <c r="C209">
+        <v>5005662070.7210503</v>
+      </c>
+      <c r="E209">
+        <v>7.3294443883453404</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>399</v>
+      </c>
+      <c r="B210">
+        <v>6107706</v>
+      </c>
+      <c r="C210">
+        <v>25054200000</v>
+      </c>
+      <c r="E210">
+        <v>1.10577511317753</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>400</v>
+      </c>
+      <c r="B211">
+        <v>31595</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>401</v>
+      </c>
+      <c r="B212">
+        <v>10517569</v>
+      </c>
+      <c r="C212">
+        <v>5707000000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>74</v>
+      </c>
+      <c r="B213">
+        <v>7130576</v>
+      </c>
+      <c r="C213">
+        <v>44210806365.681702</v>
+      </c>
+      <c r="E213">
+        <v>2.08244793880155</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>402</v>
+      </c>
+      <c r="B214">
+        <v>974280491</v>
+      </c>
+      <c r="C214">
+        <v>1753063188384.04</v>
+      </c>
+      <c r="E214">
+        <v>4.4031359400426098</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>403</v>
+      </c>
+      <c r="B215">
+        <v>11911184</v>
+      </c>
+      <c r="C215">
+        <v>13282084033.8983</v>
+      </c>
+      <c r="E215">
+        <v>3.2590735271746798</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>404</v>
+      </c>
+      <c r="B216">
+        <v>974371891</v>
+      </c>
+      <c r="C216">
+        <v>1754486218759.3401</v>
+      </c>
+      <c r="E216">
+        <v>4.3914879903336104</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>405</v>
+      </c>
+      <c r="B217">
+        <v>37479355</v>
+      </c>
+      <c r="C217">
+        <v>520631373300.61102</v>
+      </c>
+      <c r="E217">
+        <v>1.8871702457828501</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>406</v>
+      </c>
+      <c r="B218">
+        <v>186342</v>
+      </c>
+      <c r="C218">
+        <v>337413477.24083698</v>
+      </c>
+      <c r="E218">
+        <v>6.9877692759448999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>271</v>
+      </c>
+      <c r="B219">
+        <v>538248</v>
+      </c>
+      <c r="C219">
+        <v>5210303030.30303</v>
+      </c>
+      <c r="E219">
+        <v>3.3897457264698798</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>77</v>
+      </c>
+      <c r="B220">
+        <v>5418649</v>
+      </c>
+      <c r="C220">
+        <v>100252753084.782</v>
+      </c>
+      <c r="D220">
+        <v>21.462068144069999</v>
+      </c>
+      <c r="E220">
+        <v>-7.6165329542008303E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>272</v>
+      </c>
+      <c r="B221">
+        <v>2061980</v>
+      </c>
+      <c r="C221">
+        <v>49491396798.061897</v>
+      </c>
+      <c r="E221">
+        <v>0.20007485794004401</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>78</v>
+      </c>
+      <c r="B222">
+        <v>9696110</v>
+      </c>
+      <c r="C222">
+        <v>571100683085.099</v>
+      </c>
+      <c r="D222">
+        <v>31.842359206359902</v>
+      </c>
+      <c r="E222">
+        <v>-0.17963849411475899</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>407</v>
+      </c>
+      <c r="B223">
+        <v>1269112</v>
+      </c>
+      <c r="C223">
+        <v>4412891833.3686504</v>
+      </c>
+      <c r="E223">
+        <v>5.6852668635943902</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>408</v>
+      </c>
+      <c r="B224">
+        <v>37685</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>409</v>
+      </c>
+      <c r="B225">
+        <v>91400</v>
+      </c>
+      <c r="C225">
+        <v>1422530791.5588</v>
+      </c>
+      <c r="E225">
+        <v>1.38583454581259</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>410</v>
+      </c>
+      <c r="B226">
+        <v>18772481</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>411</v>
+      </c>
+      <c r="B227">
+        <v>33740</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>412</v>
+      </c>
+      <c r="B228">
+        <v>13587053</v>
+      </c>
+      <c r="C228">
+        <v>13922223233.5184</v>
+      </c>
+      <c r="E228">
+        <v>1.68083587513844</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>413</v>
+      </c>
+      <c r="B229">
+        <v>1995584007</v>
+      </c>
+      <c r="C229">
+        <v>12589463128069</v>
+      </c>
+      <c r="E229">
+        <v>3.8552385534790501</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>414</v>
+      </c>
+      <c r="B230">
+        <v>451234370</v>
+      </c>
+      <c r="C230">
+        <v>4457235551898.2998</v>
+      </c>
+      <c r="D230">
+        <v>28.748155166091902</v>
+      </c>
+      <c r="E230">
+        <v>2.9809880730236902</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>273</v>
+      </c>
+      <c r="B231">
+        <v>7115163</v>
+      </c>
+      <c r="C231">
+        <v>4482535926.29673</v>
+      </c>
+      <c r="E231">
+        <v>0.186716067100334</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>79</v>
+      </c>
+      <c r="B232">
+        <v>67725979</v>
+      </c>
+      <c r="C232">
+        <v>404320038916.49597</v>
+      </c>
+      <c r="D232">
+        <v>19.739913412548201</v>
+      </c>
+      <c r="E232">
+        <v>1.89037712548685</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>80</v>
+      </c>
+      <c r="B233">
+        <v>8295840</v>
+      </c>
+      <c r="C233">
+        <v>9236309138.0427704</v>
+      </c>
+      <c r="E233">
+        <v>6.10442765129668</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>415</v>
+      </c>
+      <c r="B234">
+        <v>5307188</v>
+      </c>
+      <c r="C234">
+        <v>43485614035.0877</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>416</v>
+      </c>
+      <c r="B235">
+        <v>610149938</v>
+      </c>
+      <c r="C235">
+        <v>6020939434123.3701</v>
+      </c>
+      <c r="E235">
+        <v>3.51847818194992</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>417</v>
+      </c>
+      <c r="B236">
+        <v>351968238</v>
+      </c>
+      <c r="C236">
+        <v>1547094259122.0701</v>
+      </c>
+      <c r="E236">
+        <v>2.8915662650602401</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>418</v>
+      </c>
+      <c r="B237">
+        <v>1212107</v>
+      </c>
+      <c r="C237">
+        <v>1371172832.7715299</v>
+      </c>
+      <c r="E237">
+        <v>0.44354838709741801</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>274</v>
+      </c>
+      <c r="B238">
+        <v>105586</v>
+      </c>
+      <c r="C238">
+        <v>434386306.62629902</v>
+      </c>
+      <c r="E238">
+        <v>2.5108763325111001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>419</v>
+      </c>
+      <c r="B239">
+        <v>1721152580</v>
+      </c>
+      <c r="C239">
+        <v>2583577541978.9502</v>
+      </c>
+      <c r="E239">
+        <v>6.6721799355780798</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>420</v>
+      </c>
+      <c r="B240">
+        <v>974371891</v>
+      </c>
+      <c r="C240">
+        <v>1754486218759.3401</v>
+      </c>
+      <c r="E240">
+        <v>4.3914879903336104</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>275</v>
+      </c>
+      <c r="B241">
+        <v>1354483</v>
+      </c>
+      <c r="C241">
+        <v>28874122633.574299</v>
+      </c>
+      <c r="E241">
+        <v>5.6844181459564602</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>84</v>
+      </c>
+      <c r="B242">
+        <v>10996600</v>
+      </c>
+      <c r="C242">
+        <v>47603227896.565903</v>
+      </c>
+      <c r="E242">
+        <v>4.9377353026351098</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>85</v>
+      </c>
+      <c r="B243">
+        <v>77523788</v>
+      </c>
+      <c r="C243">
+        <v>798797266164.03894</v>
+      </c>
+      <c r="D243">
+        <v>36.242042224636201</v>
+      </c>
+      <c r="E243">
+        <v>8.8545727136433303</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>421</v>
+      </c>
+      <c r="B244">
+        <v>9893</v>
+      </c>
+      <c r="C244">
+        <v>37859554.459705099</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>276</v>
+      </c>
+      <c r="B245">
+        <v>51822621</v>
+      </c>
+      <c r="C245">
+        <v>48030400964.205299</v>
+      </c>
+      <c r="E245">
+        <v>6.1316143298802404</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>206</v>
+      </c>
+      <c r="B246">
+        <v>37782971</v>
+      </c>
+      <c r="C246">
+        <v>26998477707.096401</v>
+      </c>
+      <c r="E246">
+        <v>4.2882092632033597</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>86</v>
+      </c>
+      <c r="B247">
+        <v>45362900</v>
+      </c>
+      <c r="C247">
+        <v>131805126738.287</v>
+      </c>
+      <c r="E247">
+        <v>12.1883656509695</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>422</v>
+      </c>
+      <c r="B248">
+        <v>2573612474</v>
+      </c>
+      <c r="C248">
+        <v>21861947545542.199</v>
+      </c>
+      <c r="E248">
+        <v>3.0688121037954201</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>277</v>
+      </c>
+      <c r="B249">
+        <v>3419516</v>
+      </c>
+      <c r="C249">
+        <v>57235766827.037598</v>
+      </c>
+      <c r="E249">
+        <v>8.8773533322985791</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>87</v>
+      </c>
+      <c r="B250">
+        <v>318907401</v>
+      </c>
+      <c r="C250">
+        <v>17348071500000</v>
+      </c>
+      <c r="D250">
+        <v>18.9815623021844</v>
+      </c>
+      <c r="E250">
+        <v>1.62222297740851</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>88</v>
+      </c>
+      <c r="B251">
+        <v>30757700</v>
+      </c>
+      <c r="C251">
+        <v>63132848445.013298</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>423</v>
+      </c>
+      <c r="B252">
+        <v>109360</v>
+      </c>
+      <c r="C252">
+        <v>729738560.37037003</v>
+      </c>
+      <c r="E252">
+        <v>0.19385856079373501</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>89</v>
+      </c>
+      <c r="B253">
+        <v>30693827</v>
+      </c>
+      <c r="E253">
+        <v>62.168649979482801</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>424</v>
+      </c>
+      <c r="B254">
+        <v>29585</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>425</v>
+      </c>
+      <c r="B255">
+        <v>104170</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>278</v>
+      </c>
+      <c r="B256">
+        <v>90728900</v>
+      </c>
+      <c r="C256">
+        <v>186204652922.26199</v>
+      </c>
+      <c r="E256">
+        <v>4.0858999407279502</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>426</v>
+      </c>
+      <c r="B257">
+        <v>258883</v>
+      </c>
+      <c r="C257">
+        <v>814954586.81729996</v>
+      </c>
+      <c r="E257">
+        <v>0.79886383809695505</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>427</v>
+      </c>
+      <c r="B258">
+        <v>4294682</v>
+      </c>
+      <c r="C258">
+        <v>12715600000</v>
+      </c>
+      <c r="D258">
+        <v>6.1576368902884902</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>93</v>
+      </c>
+      <c r="B259">
+        <v>7260780278</v>
+      </c>
+      <c r="C259">
+        <v>78088515958673.406</v>
+      </c>
+      <c r="E259">
+        <v>2.6608605267318501</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>428</v>
+      </c>
+      <c r="B260">
+        <v>191845</v>
+      </c>
+      <c r="C260">
+        <v>800418989.62175095</v>
+      </c>
+      <c r="E260">
+        <v>-0.40681608842525302</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>429</v>
+      </c>
+      <c r="B261">
+        <v>26183676</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>279</v>
+      </c>
+      <c r="B262">
+        <v>54058647</v>
+      </c>
+      <c r="C262">
+        <v>349873026988.67603</v>
+      </c>
+      <c r="D262">
+        <v>30.488550733294101</v>
+      </c>
+      <c r="E262">
+        <v>6.3752590088874204</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>430</v>
+      </c>
+      <c r="B263">
+        <v>74877030</v>
+      </c>
+      <c r="C263">
+        <v>32782281736.283401</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>280</v>
+      </c>
+      <c r="B264">
+        <v>15721343</v>
+      </c>
+      <c r="C264">
+        <v>27134637888.441002</v>
+      </c>
+      <c r="E264">
+        <v>7.8119544170391597</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>281</v>
+      </c>
+      <c r="B265">
+        <v>15245855</v>
+      </c>
+      <c r="C265">
+        <v>14196912500</v>
+      </c>
+      <c r="E265">
+        <v>-0.217286170986706</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13433,7 +18963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
@@ -19285,27 +24815,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
     <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="10.83203125" style="3"/>
     <col min="18" max="19" width="10.83203125" style="3"/>
+    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -19363,8 +24896,29 @@
       <c r="S1" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="U1" t="s">
+        <v>434</v>
+      </c>
+      <c r="V1" t="s">
+        <v>435</v>
+      </c>
+      <c r="W1" t="s">
+        <v>436</v>
+      </c>
+      <c r="X1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -19438,8 +24992,36 @@
         <f t="shared" ref="S2:S49" si="1">(C2-AVERAGE($C$2:$C$49))/_xlfn.STDEV.S($C$2:$C$49)</f>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <f>VLOOKUP($A2,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>4.6043340090053402</v>
+      </c>
+      <c r="U2">
+        <f>VLOOKUP($A2,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>20050189881.665901</v>
+      </c>
+      <c r="V2">
+        <f>VLOOKUP($A2,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>31627506</v>
+      </c>
+      <c r="W2">
+        <f>VLOOKUP($A2,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>VLOOKUP($A2,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>VLOOKUP($A2,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>VLOOKUP($A2,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -19466,14 +25048,6 @@
         <f>VLOOKUP(A3,econ!$A$2:$H$110,8,FALSE)</f>
         <v>42095224</v>
       </c>
-      <c r="H3">
-        <f>VLOOKUP(A3,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I40" si="2">H3/G3</f>
-        <v>0</v>
-      </c>
       <c r="J3">
         <f>VLOOKUP(A3,econ!$A$2:$E$110,5,FALSE)</f>
         <v>8.5839999999999996</v>
@@ -19486,14 +25060,6 @@
         <f>VLOOKUP(A3,econ!$A$2:$E$110,3,FALSE)</f>
         <v>40381860</v>
       </c>
-      <c r="M3">
-        <f>VLOOKUP(A3,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N40" si="3">M3/L3</f>
-        <v>0</v>
-      </c>
       <c r="O3" s="3">
         <f>B3/'2008'!$C$88</f>
         <v>2.9895366218236172E-2</v>
@@ -19513,8 +25079,36 @@
         <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <f>VLOOKUP(A3,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>VLOOKUP($A3,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>529726189460.922</v>
+      </c>
+      <c r="V3">
+        <f>VLOOKUP($A3,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>42980026</v>
+      </c>
+      <c r="W3">
+        <f>VLOOKUP($A3,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>VLOOKUP($A3,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>VLOOKUP($A3,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <f>VLOOKUP($A3,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -19546,7 +25140,7 @@
         <v>22.86</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I4:I40" si="2">H4/G4</f>
         <v>7.6754190842613956E-6</v>
       </c>
       <c r="J4">
@@ -19566,7 +25160,7 @@
         <v>22.86</v>
       </c>
       <c r="N4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N4:N40" si="3">M4/L4</f>
         <v>7.683958710990716E-6</v>
       </c>
       <c r="O4" s="3">
@@ -19588,8 +25182,36 @@
         <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <f>VLOOKUP(A4,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>2.9809880730236902</v>
+      </c>
+      <c r="U4">
+        <f>VLOOKUP($A4,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>11644438422.9844</v>
+      </c>
+      <c r="V4">
+        <f>VLOOKUP($A4,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>3006154</v>
+      </c>
+      <c r="W4">
+        <f>VLOOKUP($A4,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>VLOOKUP($A4,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>VLOOKUP($A4,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <f>VLOOKUP($A4,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -19663,8 +25285,36 @@
         <f t="shared" si="1"/>
         <v>0.36472550914314428</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <f>VLOOKUP(A5,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>2.4879227053140198</v>
+      </c>
+      <c r="U5">
+        <f>VLOOKUP($A5,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>1454675479665.8401</v>
+      </c>
+      <c r="V5">
+        <f>VLOOKUP($A5,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>23464086</v>
+      </c>
+      <c r="W5">
+        <f>VLOOKUP($A5,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>24.615386557177999</v>
+      </c>
+      <c r="X5">
+        <f>VLOOKUP($A5,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="Y5">
+        <f>VLOOKUP($A5,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="Z5">
+        <f>VLOOKUP($A5,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -19738,8 +25388,36 @@
         <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <f>VLOOKUP(A6,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>1.6058056048798099</v>
+      </c>
+      <c r="U6">
+        <f>VLOOKUP($A6,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>436887543466.95001</v>
+      </c>
+      <c r="V6">
+        <f>VLOOKUP($A6,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>8541575</v>
+      </c>
+      <c r="W6">
+        <f>VLOOKUP($A6,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>44.946948420836598</v>
+      </c>
+      <c r="X6">
+        <f>VLOOKUP($A6,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <f>VLOOKUP($A6,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f>VLOOKUP($A6,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -19813,8 +25491,36 @@
         <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <f>VLOOKUP(A7,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>1.38502893070292</v>
+      </c>
+      <c r="U7">
+        <f>VLOOKUP($A7,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>75198010965.191895</v>
+      </c>
+      <c r="V7">
+        <f>VLOOKUP($A7,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>9535079</v>
+      </c>
+      <c r="W7">
+        <f>VLOOKUP($A7,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>VLOOKUP($A7,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <f>VLOOKUP($A7,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <f>VLOOKUP($A7,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -19888,8 +25594,36 @@
         <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <f>VLOOKUP(A8,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0.34000000000000702</v>
+      </c>
+      <c r="U8">
+        <f>VLOOKUP($A8,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>531234803749.453</v>
+      </c>
+      <c r="V8">
+        <f>VLOOKUP($A8,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>11231213</v>
+      </c>
+      <c r="W8">
+        <f>VLOOKUP($A8,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>42.670376216259399</v>
+      </c>
+      <c r="X8">
+        <f>VLOOKUP($A8,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <f>VLOOKUP($A8,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <f>VLOOKUP($A8,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -19963,8 +25697,36 @@
         <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <f>VLOOKUP(A9,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>18.119554352673401</v>
+      </c>
+      <c r="U9">
+        <f>VLOOKUP($A9,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>76103961203.440598</v>
+      </c>
+      <c r="V9">
+        <f>VLOOKUP($A9,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>9483000</v>
+      </c>
+      <c r="W9">
+        <f>VLOOKUP($A9,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>VLOOKUP($A9,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <f>VLOOKUP($A9,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <f>VLOOKUP($A9,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -20038,8 +25800,36 @@
         <f t="shared" si="1"/>
         <v>-0.17896469082179126</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <f>VLOOKUP(A10,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>6.3320923420523103</v>
+      </c>
+      <c r="U10">
+        <f>VLOOKUP($A10,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>2417046323841.8999</v>
+      </c>
+      <c r="V10">
+        <f>VLOOKUP($A10,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>206077898</v>
+      </c>
+      <c r="W10">
+        <f>VLOOKUP($A10,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>VLOOKUP($A10,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="Y10">
+        <f>VLOOKUP($A10,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <f>VLOOKUP($A10,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -20113,8 +25903,36 @@
         <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11">
+        <f>VLOOKUP(A11,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>1.90663590717818</v>
+      </c>
+      <c r="U11">
+        <f>VLOOKUP($A11,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>1783775590895.9299</v>
+      </c>
+      <c r="V11">
+        <f>VLOOKUP($A11,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>35543658</v>
+      </c>
+      <c r="W11">
+        <f>VLOOKUP($A11,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>17.193492488506301</v>
+      </c>
+      <c r="X11">
+        <f>VLOOKUP($A11,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="Y11">
+        <f>VLOOKUP($A11,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <f>VLOOKUP($A11,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -20188,8 +26006,36 @@
         <f t="shared" si="1"/>
         <v>3.6268667089327575</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <f>VLOOKUP(A12,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>1.99684708355259</v>
+      </c>
+      <c r="U12">
+        <f>VLOOKUP($A12,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>10351111762216.4</v>
+      </c>
+      <c r="V12">
+        <f>VLOOKUP($A12,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>1364270000</v>
+      </c>
+      <c r="W12">
+        <f>VLOOKUP($A12,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f>VLOOKUP($A12,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="Y12">
+        <f>VLOOKUP($A12,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="Z12">
+        <f>VLOOKUP($A12,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -20263,8 +26109,36 @@
         <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <f>VLOOKUP(A13,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>2.87781025113821</v>
+      </c>
+      <c r="U13">
+        <f>VLOOKUP($A13,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>378416020533.71503</v>
+      </c>
+      <c r="V13">
+        <f>VLOOKUP($A13,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>47791393</v>
+      </c>
+      <c r="W13">
+        <f>VLOOKUP($A13,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>26.2088951110618</v>
+      </c>
+      <c r="X13">
+        <f>VLOOKUP($A13,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <f>VLOOKUP($A13,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <f>VLOOKUP($A13,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -20279,10 +26153,6 @@
         <f>VLOOKUP(A14,'2016'!$A$2:$C$100,3,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E14">
-        <f>VLOOKUP(A14,econ!$A$2:$J$110,10,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="F14">
         <f>VLOOKUP(A14,econ!$A$2:$I$110,7,FALSE)</f>
         <v>73139050000</v>
@@ -20291,18 +26161,6 @@
         <f>VLOOKUP(A14,econ!$A$2:$H$110,8,FALSE)</f>
         <v>11342631</v>
       </c>
-      <c r="H14">
-        <f>VLOOKUP(A14,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f>VLOOKUP(A14,econ!$A$2:$E$110,5,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="K14">
         <f>VLOOKUP(A14,econ!$A$2:$E$110,2,FALSE)</f>
         <v>60806300000</v>
@@ -20311,14 +26169,6 @@
         <f>VLOOKUP(A14,econ!$A$2:$E$110,3,FALSE)</f>
         <v>11290239</v>
       </c>
-      <c r="M14">
-        <f>VLOOKUP(A14,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <f>B14/'2008'!$C$88</f>
         <v>2.9895366218236174E-3</v>
@@ -20338,8 +26188,36 @@
         <f t="shared" si="1"/>
         <v>3.8511389164182966E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <f>VLOOKUP(A14,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>VLOOKUP($A14,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>VLOOKUP($A14,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>11379111</v>
+      </c>
+      <c r="W14">
+        <f>VLOOKUP($A14,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f>VLOOKUP($A14,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="Y14">
+        <f>VLOOKUP($A14,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <f>VLOOKUP($A14,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -20413,8 +26291,36 @@
         <f t="shared" si="1"/>
         <v>-7.0226650828804138E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <f>VLOOKUP(A15,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0.337186897880699</v>
+      </c>
+      <c r="U15">
+        <f>VLOOKUP($A15,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>205269709743.466</v>
+      </c>
+      <c r="V15">
+        <f>VLOOKUP($A15,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>10525347</v>
+      </c>
+      <c r="W15">
+        <f>VLOOKUP($A15,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f>VLOOKUP($A15,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <f>VLOOKUP($A15,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <f>VLOOKUP($A15,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -20488,8 +26394,36 @@
         <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <f>VLOOKUP(A16,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>2.99864226125157</v>
+      </c>
+      <c r="U16">
+        <f>VLOOKUP($A16,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>63968906782.0737</v>
+      </c>
+      <c r="V16">
+        <f>VLOOKUP($A16,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>10405943</v>
+      </c>
+      <c r="W16">
+        <f>VLOOKUP($A16,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f>VLOOKUP($A16,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <f>VLOOKUP($A16,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <f>VLOOKUP($A16,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -20563,8 +26497,36 @@
         <f t="shared" si="1"/>
         <v>-0.17896469082179126</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <f>VLOOKUP(A17,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>-0.147031810368282</v>
+      </c>
+      <c r="U17">
+        <f>VLOOKUP($A17,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>1381342101735.6799</v>
+      </c>
+      <c r="V17">
+        <f>VLOOKUP($A17,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>46480882</v>
+      </c>
+      <c r="W17">
+        <f>VLOOKUP($A17,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>16.557397518152801</v>
+      </c>
+      <c r="X17">
+        <f>VLOOKUP($A17,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>48</v>
+      </c>
+      <c r="Y17">
+        <f>VLOOKUP($A17,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <f>VLOOKUP($A17,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -20638,8 +26600,36 @@
         <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18">
+        <f>VLOOKUP(A18,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>-0.14481551946746099</v>
+      </c>
+      <c r="U18">
+        <f>VLOOKUP($A18,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>26485161115.944599</v>
+      </c>
+      <c r="V18">
+        <f>VLOOKUP($A18,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>1314545</v>
+      </c>
+      <c r="W18">
+        <f>VLOOKUP($A18,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f>VLOOKUP($A18,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <f>VLOOKUP($A18,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <f>VLOOKUP($A18,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -20713,8 +26703,36 @@
         <f t="shared" si="1"/>
         <v>-0.17896469082179126</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <f>VLOOKUP(A19,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>7.3918144799502796</v>
+      </c>
+      <c r="U19">
+        <f>VLOOKUP($A19,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>55612228233.517899</v>
+      </c>
+      <c r="V19">
+        <f>VLOOKUP($A19,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>96958732</v>
+      </c>
+      <c r="W19">
+        <f>VLOOKUP($A19,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>VLOOKUP($A19,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <f>VLOOKUP($A19,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <f>VLOOKUP($A19,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -20788,8 +26806,36 @@
         <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <f>VLOOKUP(A20,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>1.0412000061798501</v>
+      </c>
+      <c r="U20">
+        <f>VLOOKUP($A20,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>272335981538.93701</v>
+      </c>
+      <c r="V20">
+        <f>VLOOKUP($A20,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>5461512</v>
+      </c>
+      <c r="W20">
+        <f>VLOOKUP($A20,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>39.096693103649898</v>
+      </c>
+      <c r="X20">
+        <f>VLOOKUP($A20,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <f>VLOOKUP($A20,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <f>VLOOKUP($A20,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -20863,8 +26909,36 @@
         <f t="shared" si="1"/>
         <v>0.6909396291221056</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <f>VLOOKUP(A21,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0.50770067278582098</v>
+      </c>
+      <c r="U21">
+        <f>VLOOKUP($A21,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>2829192039171.8398</v>
+      </c>
+      <c r="V21">
+        <f>VLOOKUP($A21,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>66495940</v>
+      </c>
+      <c r="W21">
+        <f>VLOOKUP($A21,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>45.409983075796902</v>
+      </c>
+      <c r="X21">
+        <f>VLOOKUP($A21,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="Y21">
+        <f>VLOOKUP($A21,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="Z21">
+        <f>VLOOKUP($A21,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -20938,8 +27012,36 @@
         <f t="shared" si="1"/>
         <v>2.6482243489958739</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <f>VLOOKUP(A22,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>1.46019160885392</v>
+      </c>
+      <c r="U22">
+        <f>VLOOKUP($A22,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>2990201431078.23</v>
+      </c>
+      <c r="V22">
+        <f>VLOOKUP($A22,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>64613160</v>
+      </c>
+      <c r="W22">
+        <f>VLOOKUP($A22,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>34.625755406293301</v>
+      </c>
+      <c r="X22">
+        <f>VLOOKUP($A22,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="Y22">
+        <f>VLOOKUP($A22,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="Z22">
+        <f>VLOOKUP($A22,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -21013,8 +27115,36 @@
         <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <f>VLOOKUP(A23,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>3.0688121037954201</v>
+      </c>
+      <c r="U23">
+        <f>VLOOKUP($A23,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>16509305827.7171</v>
+      </c>
+      <c r="V23">
+        <f>VLOOKUP($A23,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>3727000</v>
+      </c>
+      <c r="W23">
+        <f>VLOOKUP($A23,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f>VLOOKUP($A23,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f>VLOOKUP($A23,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Z23">
+        <f>VLOOKUP($A23,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -21088,8 +27218,36 @@
         <f t="shared" si="1"/>
         <v>0.36472550914314428</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <f>VLOOKUP(A24,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>-0.222315060726337</v>
+      </c>
+      <c r="U24">
+        <f>VLOOKUP($A24,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>138346650088.97198</v>
+      </c>
+      <c r="V24">
+        <f>VLOOKUP($A24,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>9866468</v>
+      </c>
+      <c r="W24">
+        <f>VLOOKUP($A24,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>42.932235530350098</v>
+      </c>
+      <c r="X24">
+        <f>VLOOKUP($A24,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="Y24">
+        <f>VLOOKUP($A24,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Z24">
+        <f>VLOOKUP($A24,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -21163,8 +27321,36 @@
         <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25">
+        <f>VLOOKUP(A25,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>6.3531945441493196</v>
+      </c>
+      <c r="U25">
+        <f>VLOOKUP($A25,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>2042438591343.98</v>
+      </c>
+      <c r="V25">
+        <f>VLOOKUP($A25,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>1295291543</v>
+      </c>
+      <c r="W25">
+        <f>VLOOKUP($A25,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f>VLOOKUP($A25,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f>VLOOKUP($A25,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Z25">
+        <f>VLOOKUP($A25,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -21238,8 +27424,36 @@
         <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <f>VLOOKUP(A26,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0.19678583142013201</v>
+      </c>
+      <c r="U26">
+        <f>VLOOKUP($A26,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>250813607686.108</v>
+      </c>
+      <c r="V26">
+        <f>VLOOKUP($A26,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>4617225</v>
+      </c>
+      <c r="W26">
+        <f>VLOOKUP($A26,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>32.484915981418403</v>
+      </c>
+      <c r="X26">
+        <f>VLOOKUP($A26,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <f>VLOOKUP($A26,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <f>VLOOKUP($A26,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -21313,8 +27527,36 @@
         <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27">
+        <f>VLOOKUP(A27,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0.47595601509895402</v>
+      </c>
+      <c r="U27">
+        <f>VLOOKUP($A27,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>305674837195.00299</v>
+      </c>
+      <c r="V27">
+        <f>VLOOKUP($A27,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>8215700</v>
+      </c>
+      <c r="W27">
+        <f>VLOOKUP($A27,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>32.725872195704703</v>
+      </c>
+      <c r="X27">
+        <f>VLOOKUP($A27,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f>VLOOKUP($A27,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f>VLOOKUP($A27,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -21388,8 +27630,36 @@
         <f t="shared" si="1"/>
         <v>0.36472550914314428</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28">
+        <f>VLOOKUP(A28,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0.24105754276796601</v>
+      </c>
+      <c r="U28">
+        <f>VLOOKUP($A28,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>2138540909211.1201</v>
+      </c>
+      <c r="V28">
+        <f>VLOOKUP($A28,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>60789140</v>
+      </c>
+      <c r="W28">
+        <f>VLOOKUP($A28,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>39.017075307369403</v>
+      </c>
+      <c r="X28">
+        <f>VLOOKUP($A28,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="Y28">
+        <f>VLOOKUP($A28,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="Z28">
+        <f>VLOOKUP($A28,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -21463,8 +27733,36 @@
         <f t="shared" si="1"/>
         <v>-7.0226650828804138E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <f>VLOOKUP(A29,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>8.2900057770076891</v>
+      </c>
+      <c r="U29">
+        <f>VLOOKUP($A29,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>13927110141.57</v>
+      </c>
+      <c r="V29">
+        <f>VLOOKUP($A29,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>2720554</v>
+      </c>
+      <c r="W29">
+        <f>VLOOKUP($A29,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>31.145413227339599</v>
+      </c>
+      <c r="X29">
+        <f>VLOOKUP($A29,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <f>VLOOKUP($A29,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Z29">
+        <f>VLOOKUP($A29,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -21538,8 +27836,36 @@
         <f t="shared" si="1"/>
         <v>0.25598746915015719</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <f>VLOOKUP(A30,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>2.7488546438983699</v>
+      </c>
+      <c r="U30">
+        <f>VLOOKUP($A30,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>4596156556721.9004</v>
+      </c>
+      <c r="V30">
+        <f>VLOOKUP($A30,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>127131800</v>
+      </c>
+      <c r="W30">
+        <f>VLOOKUP($A30,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f>VLOOKUP($A30,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="Y30">
+        <f>VLOOKUP($A30,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="Z30">
+        <f>VLOOKUP($A30,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -21566,14 +27892,6 @@
         <f>VLOOKUP(A31,econ!$A$2:$H$110,8,FALSE)</f>
         <v>16791425</v>
       </c>
-      <c r="H31">
-        <f>VLOOKUP(A31,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J31">
         <f>VLOOKUP(A31,econ!$A$2:$E$110,5,FALSE)</f>
         <v>17.152000000000001</v>
@@ -21586,14 +27904,6 @@
         <f>VLOOKUP(A31,econ!$A$2:$E$110,3,FALSE)</f>
         <v>15674000</v>
       </c>
-      <c r="M31">
-        <f>VLOOKUP(A31,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="O31" s="3">
         <f>B31/'2008'!$C$88</f>
         <v>2.9895366218236174E-3</v>
@@ -21613,8 +27923,36 @@
         <f t="shared" si="1"/>
         <v>0.25598746915015719</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31">
+        <f>VLOOKUP(A31,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>6.7183065797864696</v>
+      </c>
+      <c r="U31">
+        <f>VLOOKUP($A31,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>227437054841.26801</v>
+      </c>
+      <c r="V31">
+        <f>VLOOKUP($A31,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>17289224</v>
+      </c>
+      <c r="W31">
+        <f>VLOOKUP($A31,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f>VLOOKUP($A31,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y31">
+        <f>VLOOKUP($A31,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <f>VLOOKUP($A31,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -21688,8 +28026,36 @@
         <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <f>VLOOKUP(A32,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>6.87749809668873</v>
+      </c>
+      <c r="U32">
+        <f>VLOOKUP($A32,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>61395415492.333</v>
+      </c>
+      <c r="V32">
+        <f>VLOOKUP($A32,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>44863583</v>
+      </c>
+      <c r="W32">
+        <f>VLOOKUP($A32,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f>VLOOKUP($A32,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <f>VLOOKUP($A32,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Z32">
+        <f>VLOOKUP($A32,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -21763,8 +28129,36 @@
         <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <f>VLOOKUP(A33,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0.106494137252986</v>
+      </c>
+      <c r="U33">
+        <f>VLOOKUP($A33,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>48353937110.256104</v>
+      </c>
+      <c r="V33">
+        <f>VLOOKUP($A33,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>2932367</v>
+      </c>
+      <c r="W33">
+        <f>VLOOKUP($A33,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>8.9533131001643902</v>
+      </c>
+      <c r="X33">
+        <f>VLOOKUP($A33,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <f>VLOOKUP($A33,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <f>VLOOKUP($A33,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -21838,8 +28232,36 @@
         <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <f>VLOOKUP(A34,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0.43545649125425601</v>
+      </c>
+      <c r="U34">
+        <f>VLOOKUP($A34,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>110009040838.41901</v>
+      </c>
+      <c r="V34">
+        <f>VLOOKUP($A34,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>33921203</v>
+      </c>
+      <c r="W34">
+        <f>VLOOKUP($A34,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f>VLOOKUP($A34,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <f>VLOOKUP($A34,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f>VLOOKUP($A34,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -21913,8 +28335,36 @@
         <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <f>VLOOKUP(A35,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>5.0887858315915402</v>
+      </c>
+      <c r="U35">
+        <f>VLOOKUP($A35,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>7983271110.6044598</v>
+      </c>
+      <c r="V35">
+        <f>VLOOKUP($A35,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>3556397</v>
+      </c>
+      <c r="W35">
+        <f>VLOOKUP($A35,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f>VLOOKUP($A35,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f>VLOOKUP($A35,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f>VLOOKUP($A35,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -21941,14 +28391,6 @@
         <f>VLOOKUP(A36,econ!$A$2:$H$110,8,FALSE)</f>
         <v>122070963</v>
       </c>
-      <c r="H36">
-        <f>VLOOKUP(A36,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J36">
         <f>VLOOKUP(A36,econ!$A$2:$E$110,5,FALSE)</f>
         <v>5.125</v>
@@ -21961,14 +28403,6 @@
         <f>VLOOKUP(A36,econ!$A$2:$E$110,3,FALSE)</f>
         <v>114972821</v>
       </c>
-      <c r="M36">
-        <f>VLOOKUP(A36,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="O36" s="3">
         <f>B36/'2008'!$C$88</f>
         <v>2.9895366218236174E-3</v>
@@ -21988,8 +28422,36 @@
         <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <f>VLOOKUP(A36,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>4.0186172019105797</v>
+      </c>
+      <c r="U36">
+        <f>VLOOKUP($A36,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>1297845522512.7</v>
+      </c>
+      <c r="V36">
+        <f>VLOOKUP($A36,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>125385833</v>
+      </c>
+      <c r="W36">
+        <f>VLOOKUP($A36,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f>VLOOKUP($A36,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f>VLOOKUP($A36,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Z36">
+        <f>VLOOKUP($A36,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -22063,8 +28525,36 @@
         <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37">
+        <f>VLOOKUP(A37,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>2.0250962852530701</v>
+      </c>
+      <c r="U37">
+        <f>VLOOKUP($A37,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>500519016133.29797</v>
+      </c>
+      <c r="V37">
+        <f>VLOOKUP($A37,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>5137232</v>
+      </c>
+      <c r="W37">
+        <f>VLOOKUP($A37,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>46.8949026411304</v>
+      </c>
+      <c r="X37">
+        <f>VLOOKUP($A37,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Y37">
+        <f>VLOOKUP($A37,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <f>VLOOKUP($A37,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -22138,8 +28628,36 @@
         <f t="shared" si="1"/>
         <v>0.14724942915717007</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <f>VLOOKUP(A38,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0.90659919881931506</v>
+      </c>
+      <c r="U38">
+        <f>VLOOKUP($A38,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>200142409766.82101</v>
+      </c>
+      <c r="V38">
+        <f>VLOOKUP($A38,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>4509700</v>
+      </c>
+      <c r="W38">
+        <f>VLOOKUP($A38,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>32.526687712592199</v>
+      </c>
+      <c r="X38">
+        <f>VLOOKUP($A38,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y38">
+        <f>VLOOKUP($A38,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <f>VLOOKUP($A38,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -22213,8 +28731,36 @@
         <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <f>VLOOKUP(A39,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0.106951871658061</v>
+      </c>
+      <c r="U39">
+        <f>VLOOKUP($A39,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>544982089079.09302</v>
+      </c>
+      <c r="V39">
+        <f>VLOOKUP($A39,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>38011735</v>
+      </c>
+      <c r="W39">
+        <f>VLOOKUP($A39,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>20.376035543229001</v>
+      </c>
+      <c r="X39">
+        <f>VLOOKUP($A39,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="Y39">
+        <f>VLOOKUP($A39,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Z39">
+        <f>VLOOKUP($A39,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -22288,8 +28834,36 @@
         <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <f>VLOOKUP(A40,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>1.0689610220310299</v>
+      </c>
+      <c r="U40">
+        <f>VLOOKUP($A40,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>199324435686.134</v>
+      </c>
+      <c r="V40">
+        <f>VLOOKUP($A40,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>19908979</v>
+      </c>
+      <c r="W40">
+        <f>VLOOKUP($A40,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>29.889128960926499</v>
+      </c>
+      <c r="X40">
+        <f>VLOOKUP($A40,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <f>VLOOKUP($A40,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Z40">
+        <f>VLOOKUP($A40,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -22321,7 +28895,7 @@
         <v>38.209000000000003</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41:I49" si="4">H41/G41</f>
+        <f t="shared" ref="I41:I48" si="4">H41/G41</f>
         <v>5.3074859457677707E-6</v>
       </c>
       <c r="J41">
@@ -22341,7 +28915,7 @@
         <v>38.209000000000003</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41:N49" si="5">M41/L41</f>
+        <f t="shared" ref="N41:N48" si="5">M41/L41</f>
         <v>5.198346390081824E-6</v>
       </c>
       <c r="O41" s="3">
@@ -22363,8 +28937,36 @@
         <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41">
+        <f>VLOOKUP(A41,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>2.08244793880155</v>
+      </c>
+      <c r="U41">
+        <f>VLOOKUP($A41,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>44210806365.681702</v>
+      </c>
+      <c r="V41">
+        <f>VLOOKUP($A41,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>7130576</v>
+      </c>
+      <c r="W41">
+        <f>VLOOKUP($A41,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f>VLOOKUP($A41,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <f>VLOOKUP($A41,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <f>VLOOKUP($A41,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -22438,8 +29040,36 @@
         <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T42">
+        <f>VLOOKUP(A42,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>-0.17963849411475899</v>
+      </c>
+      <c r="U42">
+        <f>VLOOKUP($A42,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>571100683085.099</v>
+      </c>
+      <c r="V42">
+        <f>VLOOKUP($A42,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>9696110</v>
+      </c>
+      <c r="W42">
+        <f>VLOOKUP($A42,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>31.842359206359902</v>
+      </c>
+      <c r="X42">
+        <f>VLOOKUP($A42,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Y42">
+        <f>VLOOKUP($A42,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Z42">
+        <f>VLOOKUP($A42,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -22513,8 +29143,36 @@
         <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43">
+        <f>VLOOKUP(A43,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>1.89037712548685</v>
+      </c>
+      <c r="U43">
+        <f>VLOOKUP($A43,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>404320038916.49597</v>
+      </c>
+      <c r="V43">
+        <f>VLOOKUP($A43,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>67725979</v>
+      </c>
+      <c r="W43">
+        <f>VLOOKUP($A43,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>19.739913412548201</v>
+      </c>
+      <c r="X43">
+        <f>VLOOKUP($A43,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <f>VLOOKUP($A43,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <f>VLOOKUP($A43,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -22541,14 +29199,6 @@
         <f>VLOOKUP(A44,econ!$A$2:$H$110,8,FALSE)</f>
         <v>7930929</v>
       </c>
-      <c r="H44">
-        <f>VLOOKUP(A44,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="J44">
         <f>VLOOKUP(A44,econ!$A$2:$E$110,5,FALSE)</f>
         <v>20.471</v>
@@ -22561,14 +29211,6 @@
         <f>VLOOKUP(A44,econ!$A$2:$E$110,3,FALSE)</f>
         <v>7254072</v>
       </c>
-      <c r="M44">
-        <f>VLOOKUP(A44,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="O44" s="3">
         <f>B44/'2008'!$C$88</f>
         <v>0</v>
@@ -22588,8 +29230,36 @@
         <f t="shared" si="1"/>
         <v>-0.50517881080075255</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T44">
+        <f>VLOOKUP(A44,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>6.10442765129668</v>
+      </c>
+      <c r="U44">
+        <f>VLOOKUP($A44,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>9236309138.0427704</v>
+      </c>
+      <c r="V44">
+        <f>VLOOKUP($A44,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>8295840</v>
+      </c>
+      <c r="W44">
+        <f>VLOOKUP($A44,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f>VLOOKUP($A44,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <f>VLOOKUP($A44,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f>VLOOKUP($A44,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -22663,8 +29333,36 @@
         <f t="shared" si="1"/>
         <v>-0.28770273081477837</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T45">
+        <f>VLOOKUP(A45,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>4.9377353026351098</v>
+      </c>
+      <c r="U45">
+        <f>VLOOKUP($A45,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>47603227896.565903</v>
+      </c>
+      <c r="V45">
+        <f>VLOOKUP($A45,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>10996600</v>
+      </c>
+      <c r="W45">
+        <f>VLOOKUP($A45,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f>VLOOKUP($A45,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f>VLOOKUP($A45,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f>VLOOKUP($A45,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -22738,8 +29436,36 @@
         <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T46">
+        <f>VLOOKUP(A46,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>8.8545727136433303</v>
+      </c>
+      <c r="U46">
+        <f>VLOOKUP($A46,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>798797266164.03894</v>
+      </c>
+      <c r="V46">
+        <f>VLOOKUP($A46,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>77523788</v>
+      </c>
+      <c r="W46">
+        <f>VLOOKUP($A46,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>36.242042224636201</v>
+      </c>
+      <c r="X46">
+        <f>VLOOKUP($A46,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Y46">
+        <f>VLOOKUP($A46,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Z46">
+        <f>VLOOKUP($A46,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -22813,8 +29539,36 @@
         <f t="shared" si="1"/>
         <v>0.14724942915717007</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T47">
+        <f>VLOOKUP(A47,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>12.1883656509695</v>
+      </c>
+      <c r="U47">
+        <f>VLOOKUP($A47,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>131805126738.287</v>
+      </c>
+      <c r="V47">
+        <f>VLOOKUP($A47,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>45362900</v>
+      </c>
+      <c r="W47">
+        <f>VLOOKUP($A47,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f>VLOOKUP($A47,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Y47">
+        <f>VLOOKUP($A47,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Z47">
+        <f>VLOOKUP($A47,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -22888,8 +29642,36 @@
         <f t="shared" si="1"/>
         <v>4.4967710288766547</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T48">
+        <f>VLOOKUP(A48,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>1.62222297740851</v>
+      </c>
+      <c r="U48">
+        <f>VLOOKUP($A48,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>17348071500000</v>
+      </c>
+      <c r="V48">
+        <f>VLOOKUP($A48,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>318907401</v>
+      </c>
+      <c r="W48">
+        <f>VLOOKUP($A48,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>18.9815623021844</v>
+      </c>
+      <c r="X48">
+        <f>VLOOKUP($A48,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>109</v>
+      </c>
+      <c r="Y48">
+        <f>VLOOKUP($A48,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="Z48">
+        <f>VLOOKUP($A48,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -22904,10 +29686,6 @@
         <f>VLOOKUP(A49,'2016'!$A$2:$C$100,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E49">
-        <f>VLOOKUP(A49,econ!$A$2:$J$110,10,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="F49">
         <f>VLOOKUP(A49,econ!$A$2:$I$110,7,FALSE)</f>
         <v>51183443225</v>
@@ -22916,18 +29694,6 @@
         <f>VLOOKUP(A49,econ!$A$2:$H$110,8,FALSE)</f>
         <v>29774500</v>
       </c>
-      <c r="H49">
-        <f>VLOOKUP(A49,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <f>VLOOKUP(A49,econ!$A$2:$E$110,5,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="K49">
         <f>VLOOKUP(A49,econ!$A$2:$E$110,2,FALSE)</f>
         <v>27934030937.200001</v>
@@ -22936,14 +29702,6 @@
         <f>VLOOKUP(A49,econ!$A$2:$E$110,3,FALSE)</f>
         <v>27302800</v>
       </c>
-      <c r="M49">
-        <f>VLOOKUP(A49,econ!$A$2:$L$110,12,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="O49" s="3">
         <f>B49/'2008'!$C$88</f>
         <v>1.4947683109118087E-3</v>
@@ -22963,18 +29721,52 @@
         <f t="shared" si="1"/>
         <v>-0.39644077080776546</v>
       </c>
+      <c r="T49">
+        <f>VLOOKUP(A49,'2014_econ'!$A$2:$E$265,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f>VLOOKUP($A49,'2014_econ'!$A$2:$E$265,3,FALSE)</f>
+        <v>63132848445.013298</v>
+      </c>
+      <c r="V49">
+        <f>VLOOKUP($A49,'2014_econ'!$A$2:$E$265,2,FALSE)</f>
+        <v>30757700</v>
+      </c>
+      <c r="W49">
+        <f>VLOOKUP($A49,'2014_econ'!$A$2:$E$265,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f>VLOOKUP($A49,silver!$A$2:$D$87,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="Y49">
+        <f>VLOOKUP($A49,silver!$A$2:$D$87,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <f>VLOOKUP($A49,silver!$A$2:$D$87,4,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>437</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24390,1427 +31182,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>2008</v>
-      </c>
-      <c r="C1">
-        <v>2012</v>
-      </c>
-      <c r="D1">
-        <v>2016</v>
-      </c>
-      <c r="E1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>VLOOKUP(A2,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>VLOOKUP(A2,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>VLOOKUP(A3,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>VLOOKUP(A3,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-      <c r="C4">
-        <f>VLOOKUP(A4,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <f>VLOOKUP(A4,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <f>VLOOKUP(A5,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <f>VLOOKUP(A5,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>76</v>
-      </c>
-      <c r="C6">
-        <f>VLOOKUP(A6,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <f>VLOOKUP(A6,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <f>VLOOKUP(A7,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f>VLOOKUP(A7,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <f>VLOOKUP(A8,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <f>VLOOKUP(A8,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f>VLOOKUP(A9,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f>VLOOKUP(A9,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f>VLOOKUP(A10,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <f>VLOOKUP(A10,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <f>VLOOKUP(A11,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <f>VLOOKUP(A11,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <f>VLOOKUP(A12,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <f>VLOOKUP(A12,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <f>VLOOKUP(A13,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f>VLOOKUP(A13,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <f>VLOOKUP(A14,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <f>VLOOKUP(A14,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="e">
-        <f>VLOOKUP(A15,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" t="e">
-        <f>VLOOKUP(A15,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>57</v>
-      </c>
-      <c r="C16">
-        <f>VLOOKUP(A16,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <f>VLOOKUP(A16,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="e">
-        <f>VLOOKUP(A17,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" t="e">
-        <f>VLOOKUP(A17,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <f>VLOOKUP(A18,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <f>VLOOKUP(A18,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <f>VLOOKUP(A19,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <f>VLOOKUP(A19,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <f>VLOOKUP(A20,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <f>VLOOKUP(A20,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <f>VLOOKUP(A21,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <f>VLOOKUP(A21,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <f>VLOOKUP(A22,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <f>VLOOKUP(A22,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <f>VLOOKUP(A23,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f>VLOOKUP(A23,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="e">
-        <f>VLOOKUP(A24,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D24" t="e">
-        <f>VLOOKUP(A24,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f>VLOOKUP(A25,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f>VLOOKUP(A25,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <f>VLOOKUP(A26,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <f>VLOOKUP(A26,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <f>VLOOKUP(A27,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f>VLOOKUP(A27,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <f>VLOOKUP(A28,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <f>VLOOKUP(A28,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <f>VLOOKUP(A29,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <f>VLOOKUP(A29,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <f>VLOOKUP(A30,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="D30">
-        <f>VLOOKUP(A30,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31">
-        <v>21</v>
-      </c>
-      <c r="C31">
-        <f>VLOOKUP(A31,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>19</v>
-      </c>
-      <c r="D31">
-        <f>VLOOKUP(A31,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <f>VLOOKUP(A32,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <f>VLOOKUP(A32,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <f>VLOOKUP(A33,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="D33">
-        <f>VLOOKUP(A33,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <f>VLOOKUP(A34,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <f>VLOOKUP(A34,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <f>VLOOKUP(A35,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <f>VLOOKUP(A35,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <f>VLOOKUP(A36,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <f>VLOOKUP(A36,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <f>VLOOKUP(A37,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <f>VLOOKUP(A37,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <f>VLOOKUP(A38,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <f>VLOOKUP(A38,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <f>VLOOKUP(A39,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <f>VLOOKUP(A39,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="e">
-        <f>VLOOKUP(A40,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D40" t="e">
-        <f>VLOOKUP(A40,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <f>VLOOKUP(A41,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <f>VLOOKUP(A41,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="C42">
-        <f>VLOOKUP(A42,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="D42">
-        <f>VLOOKUP(A42,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43">
-        <f>VLOOKUP(A43,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <f>VLOOKUP(A43,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44">
-        <v>17</v>
-      </c>
-      <c r="C44">
-        <f>VLOOKUP(A44,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>17</v>
-      </c>
-      <c r="D44">
-        <f>VLOOKUP(A44,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <f>VLOOKUP(A45,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D45">
-        <f>VLOOKUP(A45,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <f>VLOOKUP(A46,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <f>VLOOKUP(A46,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="e">
-        <f>VLOOKUP(A47,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D47" t="e">
-        <f>VLOOKUP(A47,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48">
-        <v>26</v>
-      </c>
-      <c r="C48">
-        <f>VLOOKUP(A48,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <f>VLOOKUP(A48,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <f>VLOOKUP(A49,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <f>VLOOKUP(A49,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <f>VLOOKUP(A50,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <f>VLOOKUP(A50,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <f>VLOOKUP(A51,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <f>VLOOKUP(A51,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <f>VLOOKUP(A52,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <f>VLOOKUP(A52,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <f>VLOOKUP(A53,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <f>VLOOKUP(A53,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <f>VLOOKUP(A54,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <f>VLOOKUP(A54,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <f>VLOOKUP(A55,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <f>VLOOKUP(A55,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="e">
-        <f>VLOOKUP(A56,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D56" t="e">
-        <f>VLOOKUP(A56,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <f>VLOOKUP(A57,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="D57">
-        <f>VLOOKUP(A57,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58">
-        <v>6</v>
-      </c>
-      <c r="C58">
-        <f>VLOOKUP(A58,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <f>VLOOKUP(A58,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <f>VLOOKUP(A59,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <f>VLOOKUP(A59,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60">
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <f>VLOOKUP(A60,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <f>VLOOKUP(A60,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61" t="e">
-        <f>VLOOKUP(A61,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D61" t="e">
-        <f>VLOOKUP(A61,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <f>VLOOKUP(A62,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="D62">
-        <f>VLOOKUP(A62,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <f>VLOOKUP(A63,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <f>VLOOKUP(A63,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64">
-        <f>VLOOKUP(A64,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <f>VLOOKUP(A64,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65">
-        <v>16</v>
-      </c>
-      <c r="C65">
-        <f>VLOOKUP(A65,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <f>VLOOKUP(A65,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <f>VLOOKUP(A66,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <f>VLOOKUP(A66,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67">
-        <v>56</v>
-      </c>
-      <c r="C67">
-        <f>VLOOKUP(A67,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>32</v>
-      </c>
-      <c r="D67">
-        <f>VLOOKUP(A67,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <f>VLOOKUP(A68,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D68">
-        <f>VLOOKUP(A68,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69">
-        <f>VLOOKUP(A69,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <f>VLOOKUP(A69,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70">
-        <v>14</v>
-      </c>
-      <c r="C70">
-        <f>VLOOKUP(A70,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <f>VLOOKUP(A70,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" t="e">
-        <f>VLOOKUP(A71,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D71" t="e">
-        <f>VLOOKUP(A71,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72">
-        <v>8</v>
-      </c>
-      <c r="C72">
-        <f>VLOOKUP(A72,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <f>VLOOKUP(A72,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <f>VLOOKUP(A73,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D73">
-        <f>VLOOKUP(A73,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <f>VLOOKUP(A74,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <f>VLOOKUP(A74,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <f>VLOOKUP(A75,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <f>VLOOKUP(A75,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <f>VLOOKUP(A76,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <f>VLOOKUP(A76,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="e">
-        <f>VLOOKUP(A77,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D77" t="e">
-        <f>VLOOKUP(A77,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78">
-        <v>4</v>
-      </c>
-      <c r="C78">
-        <f>VLOOKUP(A78,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <f>VLOOKUP(A78,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <f>VLOOKUP(A79,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <f>VLOOKUP(A79,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <f>VLOOKUP(A80,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <f>VLOOKUP(A80,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81">
-        <f>VLOOKUP(A81,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <f>VLOOKUP(A81,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82">
-        <v>16</v>
-      </c>
-      <c r="C82">
-        <f>VLOOKUP(A82,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="D82">
-        <f>VLOOKUP(A82,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83">
-        <v>81</v>
-      </c>
-      <c r="C83">
-        <f>VLOOKUP(A83,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>29</v>
-      </c>
-      <c r="D83">
-        <f>VLOOKUP(A83,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-      <c r="C84">
-        <f>VLOOKUP(A84,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <f>VLOOKUP(A84,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <f>VLOOKUP(A85,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <f>VLOOKUP(A85,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <f>VLOOKUP(A86,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <f>VLOOKUP(A86,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87" t="e">
-        <f>VLOOKUP(A87,'2012'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D87" t="e">
-        <f>VLOOKUP(A87,'2016'!$A$2:$E$100,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>